--- a/LanguageData.xlsx
+++ b/LanguageData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="24200" windowHeight="17180" tabRatio="500"/>
+    <workbookView xWindow="3500" yWindow="560" windowWidth="24200" windowHeight="17180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LanguageData.csv" sheetId="2" r:id="rId1"/>
-    <sheet name="Lineages" sheetId="3" r:id="rId2"/>
+    <sheet name="LanguageTree" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="295">
   <si>
     <t>Papuan</t>
   </si>
@@ -299,267 +299,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Aboriginial          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algic          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borean          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chibchan          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khoisan          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayan          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NigerCongo          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NiloSaharan          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtoManguean          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papuan          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SouthAmerican          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uninhabited          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UtoAztecan          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EastBorean Borean         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nostratic Borean         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afroasiatic Nostratic Borean        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austric EastBorean Borean        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeneCaucasian EastBorean Borean        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eurasiatic Nostratic Borean        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AltaUralic Eurasiatic Nostratic Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AustroAsiatic Austric EastBorean Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AustroTai Austric EastBorean Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BerberSemitic Afroasiatic Nostratic Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cushitic Afroasiatic Nostratic Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndoEuropean Eurasiatic Nostratic Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacroSinoCaucasian DeneCaucasian EastBorean Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaDene DeneCaucasian EastBorean Borean       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austronesian AustroTai Austric EastBorean Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basque MacroSinoCaucasian DeneCaucasian EastBorean Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BerberChadic BerberSemitic Afroasiatic Nostratic Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centum IndoEuropean Eurasiatic Nostratic Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satem IndoEuropean Eurasiatic Nostratic Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semitic BerberSemitic Afroasiatic Nostratic Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SinoCaucasian MacroSinoCaucasian DeneCaucasian EastBorean Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaiKadai AustroTai Austric EastBorean Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uralic AltaUralic Eurasiatic Nostratic Borean      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berber BerberChadic BerberSemitic Afroasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caucasian SinoCaucasian MacroSinoCaucasian DeneCaucasian EastBorean Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chadic BerberChadic BerberSemitic Afroasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dravidian MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greek Centum IndoEuropean Eurasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacroIndoIranian Satem IndoEuropean Eurasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacroSlavic Satem IndoEuropean Eurasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SinoTibetan SinoCaucasian MacroSinoCaucasian DeneCaucasian EastBorean Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albanian MacroSlavic Satem IndoEuropean Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenian MacroIndoIranian Satem IndoEuropean Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaltoSlavic MacroSlavic Satem IndoEuropean Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndoIranian MacroIndoIranian Satem IndoEuropean Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacroPaleoSiberian PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinic SinoTibetan SinoCaucasian MacroSinoCaucasian DeneCaucasian EastBorean Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TibetoBurman SinoTibetan SinoCaucasian MacroSinoCaucasian DeneCaucasian EastBorean Borean    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aleutian MacroPaleoSiberian PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baltic BaltoSlavic MacroSlavic Satem IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CentralRoman Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germanic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndoAryan IndoIranian MacroIndoIranian Satem IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iranian IndoIranian MacroIndoIranian Satem IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KoreJaponic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaleoMongolic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaleoSiberian MacroPaleoSiberian PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romanian Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slavic BaltoSlavic MacroSlavic Satem IndoEuropean Eurasiatic Nostratic Borean   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italian CentralRoman Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japonic KoreJaponic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korean KoreJaponic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scandinavian Germanic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tungusic PaleoMongolic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TurkoMongolic PaleoMongolic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WestGermanic Germanic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WestRoman CentralRoman Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">English WestGermanic Germanic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankish WestGermanic Germanic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">French WestRoman CentralRoman Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iberian WestRoman CentralRoman Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolic TurkoMongolic PaleoMongolic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkic TurkoMongolic PaleoMongolic Altaic PaleoAltaic MacroPaleoAltaic AltaUralic Eurasiatic Nostratic Borean </t>
-  </si>
-  <si>
-    <t>Dutch Frankish WestGermanic Germanic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean</t>
-  </si>
-  <si>
-    <t>GaliPortuguese Iberian WestRoman CentralRoman Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean</t>
-  </si>
-  <si>
-    <t>German Frankish WestGermanic Germanic NWEuropean WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean</t>
-  </si>
-  <si>
-    <t>Spanish Iberian WestRoman CentralRoman Romance WestEuropean Centum IndoEuropean Eurasiatic Nostratic Borean</t>
-  </si>
-  <si>
     <t>African</t>
   </si>
   <si>
@@ -927,6 +666,246 @@
   </si>
   <si>
     <t>F12</t>
+  </si>
+  <si>
+    <t>Child3</t>
+  </si>
+  <si>
+    <t>Child4</t>
+  </si>
+  <si>
+    <t>Child5</t>
+  </si>
+  <si>
+    <t>Child6</t>
+  </si>
+  <si>
+    <t>Chukotian</t>
+  </si>
+  <si>
+    <t>Ural-Altaic</t>
+  </si>
+  <si>
+    <t>Sino-Caucasian</t>
+  </si>
+  <si>
+    <t>Amerindian</t>
+  </si>
+  <si>
+    <t>Uto-Aztecan</t>
+  </si>
+  <si>
+    <t>Meso-American</t>
+  </si>
+  <si>
+    <t>Indo-European</t>
+  </si>
+  <si>
+    <t>Paleo-Siberian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uninhabited     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mothertongue     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Mothertongue    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amerindian Mothertongue    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borean Mothertongue    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaleoMelanesian Mothertongue    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoisan African Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NigerCongo African Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NiloSaharan African Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algic Amerindian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meso-American Amerindian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaDene Amerindian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SouthAmerican Amerindian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afroasiatic Borean Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austric Borean Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indo-European Borean Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sino-Caucasian Borean Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ural-Altaic Borean Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginial PaleoMelanesian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papuan PaleoMelanesian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berber Afroasiatic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chadic Afroasiatic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cushitic Afroasiatic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semitic Afroasiatic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AustroAsiatic Austric Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austronesian Austric Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaiKadai Austric Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centum Indo-European Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satem Indo-European Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chibchan Meso-American Amerindian Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayan Meso-American Amerindian Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtoManguean Meso-American Amerindian Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uto-Aztecan Meso-American Amerindian Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basque Sino-Caucasian Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caucasian Sino-Caucasian Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SinoTibetan Sino-Caucasian Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altaic Ural-Altaic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dravidian Ural-Altaic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaleoSiberian Ural-Altaic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uralic Ural-Altaic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japonic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tungusic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Centum Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germanic Centum Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek Centum Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance Centum Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleutian PaleoSiberian Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chukotian PaleoSiberian Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albanian Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenian Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltic Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndoAryan Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iranian Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavic Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinic SinoTibetan Sino-Caucasian Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TibetoBurman SinoTibetan Sino-Caucasian Borean Mothertongue </t>
+  </si>
+  <si>
+    <t>Dutch Germanic Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>English Germanic Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>German Germanic Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>Scandinavian Germanic Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>French Romance Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>GaliPortuguese Romance Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>Italian Romance Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>Romanian Romance Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>Spanish Romance Centum Indo-European Borean Mothertongue</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1040,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="573">
+  <cellStyleXfs count="787">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1635,8 +1614,222 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1653,8 +1846,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="573">
+  <cellStyles count="787">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1941,6 +2135,113 @@
     <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2227,9 +2528,201 @@
     <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2455,18 +2948,46 @@
     </tableColumn>
     <tableColumn id="4" name="Classes" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Self" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Father" dataDxfId="11"/>
-    <tableColumn id="9" name="F2" dataDxfId="10"/>
-    <tableColumn id="10" name="F3" dataDxfId="9"/>
-    <tableColumn id="11" name="F4" dataDxfId="8"/>
-    <tableColumn id="12" name="F5" dataDxfId="7"/>
-    <tableColumn id="13" name="F6" dataDxfId="6"/>
-    <tableColumn id="14" name="F7" dataDxfId="5"/>
-    <tableColumn id="15" name="F8" dataDxfId="4"/>
-    <tableColumn id="16" name="F9" dataDxfId="3"/>
-    <tableColumn id="17" name="F10" dataDxfId="2"/>
-    <tableColumn id="18" name="F11" dataDxfId="1"/>
-    <tableColumn id="19" name="F12" dataDxfId="0"/>
+    <tableColumn id="8" name="Father" dataDxfId="16"/>
+    <tableColumn id="9" name="F2" dataDxfId="15"/>
+    <tableColumn id="10" name="F3" dataDxfId="14"/>
+    <tableColumn id="11" name="F4" dataDxfId="13"/>
+    <tableColumn id="12" name="F5" dataDxfId="12"/>
+    <tableColumn id="13" name="F6" dataDxfId="11"/>
+    <tableColumn id="14" name="F7" dataDxfId="10"/>
+    <tableColumn id="15" name="F8" dataDxfId="9"/>
+    <tableColumn id="16" name="F9" dataDxfId="8"/>
+    <tableColumn id="17" name="F10" dataDxfId="7"/>
+    <tableColumn id="18" name="F11" dataDxfId="6"/>
+    <tableColumn id="19" name="F12" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:P69" totalsRowShown="0">
+  <autoFilter ref="A1:P69"/>
+  <sortState ref="A2:X69">
+    <sortCondition ref="I1:I69"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Language" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Parent" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Child1" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Child2" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Child3"/>
+    <tableColumn id="22" name="Child4"/>
+    <tableColumn id="23" name="Child5"/>
+    <tableColumn id="25" name="Child6"/>
+    <tableColumn id="26" name="Level"/>
+    <tableColumn id="4" name="Classes" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Self" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Father" dataDxfId="4"/>
+    <tableColumn id="9" name="F2" dataDxfId="3"/>
+    <tableColumn id="10" name="F3" dataDxfId="2"/>
+    <tableColumn id="11" name="F4" dataDxfId="1"/>
+    <tableColumn id="12" name="F5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2796,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2823,46 +3344,46 @@
         <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="L1" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="N1" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="O1" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="P1" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="Q1" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="R1" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="S1" t="s">
-        <v>301</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2882,13 +3403,13 @@
         <v>-3</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2904,22 +3425,22 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>-2</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -2936,13 +3457,13 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
@@ -2951,13 +3472,13 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2973,41 +3494,41 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -3016,29 +3537,29 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -3047,16 +3568,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -3066,7 +3587,7 @@
         <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -3078,16 +3599,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
         <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3098,10 +3619,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -3113,16 +3634,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -3132,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3144,19 +3665,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -3178,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>
@@ -3187,10 +3708,10 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -3207,7 +3728,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3219,29 +3740,29 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -3253,32 +3774,32 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -3287,19 +3808,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -3321,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>66</v>
@@ -3330,10 +3851,10 @@
         <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -3350,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3362,19 +3883,19 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="K16" s="13"/>
       <c r="R16" s="8"/>
@@ -3385,7 +3906,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3397,19 +3918,19 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="K17" s="13"/>
       <c r="R17" s="8"/>
@@ -3432,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
         <v>65</v>
@@ -3444,10 +3965,10 @@
         <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -3463,7 +3984,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3475,22 +3996,22 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -3512,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -3524,10 +4045,10 @@
         <v>67</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="8"/>
@@ -3555,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
         <v>57</v>
@@ -3567,10 +4088,10 @@
         <v>67</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="8"/>
@@ -3598,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
         <v>62</v>
@@ -3610,10 +4131,10 @@
         <v>67</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -3626,13 +4147,13 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -3641,22 +4162,22 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -3672,7 +4193,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3684,22 +4205,22 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -3712,7 +4233,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3724,22 +4245,22 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -3764,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
         <v>61</v>
@@ -3779,10 +4300,10 @@
         <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -3809,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -3824,10 +4345,10 @@
         <v>67</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -3854,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
         <v>52</v>
@@ -3869,10 +4390,10 @@
         <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -3884,40 +4405,40 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -3939,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
         <v>64</v>
@@ -3954,10 +4475,10 @@
         <v>67</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="8"/>
@@ -3972,7 +4493,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3984,25 +4505,25 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -4024,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -4039,10 +4560,10 @@
         <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -4069,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
         <v>74</v>
@@ -4084,10 +4605,10 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -4114,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
         <v>56</v>
@@ -4129,10 +4650,10 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -4159,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -4174,10 +4695,10 @@
         <v>67</v>
       </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -4204,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -4222,10 +4743,10 @@
         <v>67</v>
       </c>
       <c r="L36" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M36" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -4251,7 +4772,7 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -4269,10 +4790,10 @@
         <v>67</v>
       </c>
       <c r="L37" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M37" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -4298,7 +4819,7 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
         <v>63</v>
@@ -4316,10 +4837,10 @@
         <v>67</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M38" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -4345,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
         <v>89</v>
@@ -4363,10 +4884,10 @@
         <v>67</v>
       </c>
       <c r="L39" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -4377,10 +4898,10 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -4392,28 +4913,28 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="I40" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -4435,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="G41" t="s">
         <v>60</v>
@@ -4453,10 +4974,10 @@
         <v>67</v>
       </c>
       <c r="L41" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M41" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -4482,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -4500,10 +5021,10 @@
         <v>67</v>
       </c>
       <c r="L42" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M42" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -4529,7 +5050,7 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -4547,10 +5068,10 @@
         <v>67</v>
       </c>
       <c r="L43" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M43" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -4576,7 +5097,7 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
         <v>55</v>
@@ -4594,10 +5115,10 @@
         <v>67</v>
       </c>
       <c r="L44" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M44" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -4623,7 +5144,7 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
@@ -4641,10 +5162,10 @@
         <v>67</v>
       </c>
       <c r="L45" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M45" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -4670,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="G46" t="s">
         <v>15</v>
@@ -4688,10 +5209,10 @@
         <v>67</v>
       </c>
       <c r="L46" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -4705,7 +5226,7 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4717,28 +5238,28 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -4760,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4781,10 +5302,10 @@
         <v>67</v>
       </c>
       <c r="M48" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N48" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -4809,7 +5330,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="G49" t="s">
         <v>23</v>
@@ -4830,10 +5351,10 @@
         <v>67</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
@@ -4858,7 +5379,7 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="G50" t="s">
         <v>18</v>
@@ -4879,10 +5400,10 @@
         <v>67</v>
       </c>
       <c r="M50" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N50" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
@@ -4907,7 +5428,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -4928,10 +5449,10 @@
         <v>67</v>
       </c>
       <c r="M51" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N51" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
@@ -4956,7 +5477,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -4977,10 +5498,10 @@
         <v>67</v>
       </c>
       <c r="M52" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N52" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
@@ -5005,7 +5526,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
         <v>84</v>
@@ -5026,10 +5547,10 @@
         <v>67</v>
       </c>
       <c r="M53" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N53" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
@@ -5054,7 +5575,7 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
         <v>85</v>
@@ -5075,10 +5596,10 @@
         <v>67</v>
       </c>
       <c r="M54" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
@@ -5091,7 +5612,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -5103,31 +5624,31 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
         <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
@@ -5137,7 +5658,7 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -5149,31 +5670,31 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
       </c>
       <c r="H56" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="J56" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
@@ -5195,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -5216,10 +5737,10 @@
         <v>67</v>
       </c>
       <c r="M57" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N57" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
@@ -5244,7 +5765,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
         <v>54</v>
@@ -5265,10 +5786,10 @@
         <v>67</v>
       </c>
       <c r="M58" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N58" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
@@ -5293,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="G59" t="s">
         <v>88</v>
@@ -5314,10 +5835,10 @@
         <v>67</v>
       </c>
       <c r="M59" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N59" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
@@ -5342,7 +5863,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -5366,10 +5887,10 @@
         <v>67</v>
       </c>
       <c r="N60" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O60" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
@@ -5393,7 +5914,7 @@
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="G61" t="s">
         <v>73</v>
@@ -5417,10 +5938,10 @@
         <v>67</v>
       </c>
       <c r="N61" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O61" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
@@ -5444,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="G62" t="s">
         <v>2</v>
@@ -5468,10 +5989,10 @@
         <v>67</v>
       </c>
       <c r="N62" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O62" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
@@ -5495,7 +6016,7 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="G63" t="s">
         <v>82</v>
@@ -5519,10 +6040,10 @@
         <v>67</v>
       </c>
       <c r="N63" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O63" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
@@ -5546,7 +6067,7 @@
         <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="G64" t="s">
         <v>83</v>
@@ -5570,10 +6091,10 @@
         <v>67</v>
       </c>
       <c r="N64" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O64" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
@@ -5597,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="G65" t="s">
         <v>58</v>
@@ -5621,10 +6142,10 @@
         <v>67</v>
       </c>
       <c r="N65" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O65" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
@@ -5648,7 +6169,7 @@
         <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="G66" t="s">
         <v>87</v>
@@ -5672,10 +6193,10 @@
         <v>67</v>
       </c>
       <c r="N66" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O66" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
@@ -5699,7 +6220,7 @@
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="G67" t="s">
         <v>78</v>
@@ -5723,10 +6244,10 @@
         <v>67</v>
       </c>
       <c r="N67" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O67" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
@@ -5750,7 +6271,7 @@
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -5774,10 +6295,10 @@
         <v>67</v>
       </c>
       <c r="N68" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O68" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
@@ -5801,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="G69" t="s">
         <v>24</v>
@@ -5825,10 +6346,10 @@
         <v>67</v>
       </c>
       <c r="N69" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O69" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
@@ -5852,7 +6373,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="G70" t="s">
         <v>1</v>
@@ -5879,10 +6400,10 @@
         <v>67</v>
       </c>
       <c r="O70" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -5905,7 +6426,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
@@ -5932,10 +6453,10 @@
         <v>67</v>
       </c>
       <c r="O71" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -5958,7 +6479,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="G72" t="s">
         <v>8</v>
@@ -5985,10 +6506,10 @@
         <v>67</v>
       </c>
       <c r="O72" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
@@ -6011,7 +6532,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="G73" t="s">
         <v>72</v>
@@ -6038,10 +6559,10 @@
         <v>67</v>
       </c>
       <c r="O73" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
@@ -6064,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -6091,10 +6612,10 @@
         <v>67</v>
       </c>
       <c r="O74" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
@@ -6117,7 +6638,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -6144,10 +6665,10 @@
         <v>67</v>
       </c>
       <c r="O75" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
@@ -6170,7 +6691,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -6197,10 +6718,10 @@
         <v>67</v>
       </c>
       <c r="O76" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
@@ -6223,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="G77" t="s">
         <v>75</v>
@@ -6250,10 +6771,10 @@
         <v>67</v>
       </c>
       <c r="O77" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
@@ -6276,7 +6797,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="G78" t="s">
         <v>77</v>
@@ -6303,10 +6824,10 @@
         <v>67</v>
       </c>
       <c r="O78" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
@@ -6329,7 +6850,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="G79" t="s">
         <v>25</v>
@@ -6356,10 +6877,10 @@
         <v>67</v>
       </c>
       <c r="O79" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
@@ -6382,7 +6903,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="G80" t="s">
         <v>45</v>
@@ -6409,10 +6930,10 @@
         <v>67</v>
       </c>
       <c r="O80" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
@@ -6435,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
@@ -6462,10 +6983,10 @@
         <v>67</v>
       </c>
       <c r="O81" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
@@ -6488,7 +7009,7 @@
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -6518,10 +7039,10 @@
         <v>67</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q82" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
@@ -6543,7 +7064,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="G83" t="s">
         <v>7</v>
@@ -6573,10 +7094,10 @@
         <v>67</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q83" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
@@ -6598,7 +7119,7 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
@@ -6628,10 +7149,10 @@
         <v>67</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q84" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
@@ -6653,7 +7174,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -6683,10 +7204,10 @@
         <v>67</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q85" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
@@ -6708,7 +7229,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
@@ -6738,10 +7259,10 @@
         <v>67</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q86" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
@@ -6763,7 +7284,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="G87" t="s">
         <v>76</v>
@@ -6793,10 +7314,10 @@
         <v>67</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q87" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
@@ -6818,7 +7339,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="G88" t="s">
         <v>80</v>
@@ -6848,10 +7369,10 @@
         <v>67</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q88" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
@@ -6873,7 +7394,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="G89" t="s">
         <v>71</v>
@@ -6903,10 +7424,10 @@
         <v>67</v>
       </c>
       <c r="P89" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="Q89" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
@@ -6928,7 +7449,7 @@
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="G90" t="s">
         <v>47</v>
@@ -6961,10 +7482,10 @@
         <v>67</v>
       </c>
       <c r="Q90" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="R90" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="S90" s="8"/>
     </row>
@@ -6985,7 +7506,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="G91" t="s">
         <v>81</v>
@@ -7018,10 +7539,10 @@
         <v>67</v>
       </c>
       <c r="Q91" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="R91" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="S91" s="8"/>
     </row>
@@ -7042,7 +7563,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -7075,10 +7596,10 @@
         <v>67</v>
       </c>
       <c r="Q92" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="R92" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="S92" s="8"/>
     </row>
@@ -7099,7 +7620,7 @@
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="G93" t="s">
         <v>51</v>
@@ -7132,10 +7653,10 @@
         <v>67</v>
       </c>
       <c r="Q93" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="R93" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="S93" s="8"/>
     </row>
@@ -7156,7 +7677,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -7189,10 +7710,10 @@
         <v>67</v>
       </c>
       <c r="Q94" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="R94" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="S94" s="8"/>
     </row>
@@ -7213,7 +7734,7 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -7246,10 +7767,10 @@
         <v>67</v>
       </c>
       <c r="Q95" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="S95" s="8"/>
     </row>
@@ -7270,7 +7791,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="G96" t="s">
         <v>48</v>
@@ -7306,10 +7827,10 @@
         <v>67</v>
       </c>
       <c r="R96" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="S96" s="8" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -7329,7 +7850,7 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -7365,10 +7886,10 @@
         <v>67</v>
       </c>
       <c r="R97" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="S97" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -7388,7 +7909,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -7424,10 +7945,10 @@
         <v>67</v>
       </c>
       <c r="R98" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="S98" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7447,7 +7968,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="G99" t="s">
         <v>9</v>
@@ -7483,10 +8004,10 @@
         <v>67</v>
       </c>
       <c r="R99" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="S99" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7505,2321 +8026,2093 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:Q87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>222</v>
+      </c>
+      <c r="M11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>222</v>
+      </c>
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>240</v>
+      </c>
+      <c r="K15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" t="s">
+        <v>220</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="F23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
+        <v>248</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
         <v>65</v>
       </c>
-      <c r="I23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" t="s">
         <v>28</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>65</v>
       </c>
-      <c r="I24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="E25">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" t="s">
+        <v>222</v>
+      </c>
+      <c r="N31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" t="s">
+        <v>224</v>
+      </c>
+      <c r="M32" t="s">
+        <v>222</v>
+      </c>
+      <c r="N32" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" t="s">
+        <v>222</v>
+      </c>
+      <c r="N33" t="s">
+        <v>103</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" t="s">
+        <v>222</v>
+      </c>
+      <c r="N34" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="E26">
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="J35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" t="s">
+        <v>221</v>
+      </c>
+      <c r="M35" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" t="s">
+        <v>103</v>
+      </c>
+      <c r="O35" s="15"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>221</v>
+      </c>
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" t="s">
+        <v>103</v>
+      </c>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" t="s">
+        <v>221</v>
+      </c>
+      <c r="M37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" t="s">
+        <v>220</v>
+      </c>
+      <c r="M38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" t="s">
+        <v>103</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" t="s">
+        <v>220</v>
+      </c>
+      <c r="M40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" t="s">
+        <v>103</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" t="s">
+        <v>220</v>
+      </c>
+      <c r="M41" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30">
+      <c r="J42" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" t="s">
+        <v>220</v>
+      </c>
+      <c r="N42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" s="15"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31">
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32">
+      <c r="J43" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" t="s">
         <v>4</v>
       </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33">
+      <c r="L43" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" t="s">
+        <v>220</v>
+      </c>
+      <c r="N43" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" s="15"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="J44" t="s">
+        <v>269</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" t="s">
+        <v>220</v>
+      </c>
+      <c r="N44" t="s">
+        <v>67</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="F34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
+      <c r="J45" t="s">
+        <v>270</v>
+      </c>
+      <c r="K45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45" t="s">
+        <v>220</v>
+      </c>
+      <c r="N45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" s="15"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" t="s">
-        <v>65</v>
-      </c>
-      <c r="K38" t="s">
-        <v>66</v>
-      </c>
-      <c r="L38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K41" t="s">
-        <v>66</v>
-      </c>
-      <c r="L41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" t="s">
-        <v>74</v>
-      </c>
-      <c r="J42" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" t="s">
-        <v>66</v>
-      </c>
-      <c r="L42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" t="s">
-        <v>86</v>
-      </c>
-      <c r="I43" t="s">
-        <v>74</v>
-      </c>
-      <c r="J43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44" t="s">
-        <v>135</v>
-      </c>
-      <c r="G44" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44" t="s">
-        <v>66</v>
-      </c>
-      <c r="L44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="J46" t="s">
+        <v>271</v>
+      </c>
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" t="s">
         <v>73</v>
       </c>
-      <c r="D45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" t="s">
-        <v>61</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" t="s">
-        <v>68</v>
-      </c>
-      <c r="L46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46" t="s">
+        <v>220</v>
+      </c>
+      <c r="N46" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" t="s">
+        <v>103</v>
+      </c>
+      <c r="P46" s="15"/>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="C47" t="s">
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>272</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" t="s">
+        <v>89</v>
+      </c>
+      <c r="M47" t="s">
+        <v>225</v>
+      </c>
+      <c r="N47" t="s">
+        <v>67</v>
+      </c>
+      <c r="O47" t="s">
+        <v>103</v>
+      </c>
+      <c r="P47" s="15"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>273</v>
+      </c>
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" t="s">
+        <v>225</v>
+      </c>
+      <c r="N48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>274</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49" t="s">
+        <v>225</v>
+      </c>
+      <c r="N49" t="s">
+        <v>67</v>
+      </c>
+      <c r="O49" t="s">
+        <v>103</v>
+      </c>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" t="s">
+        <v>78</v>
+      </c>
+      <c r="L50" t="s">
+        <v>89</v>
+      </c>
+      <c r="M50" t="s">
+        <v>225</v>
+      </c>
+      <c r="N50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O50" t="s">
+        <v>103</v>
+      </c>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="s">
+        <v>220</v>
+      </c>
+      <c r="N51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O51" t="s">
+        <v>103</v>
+      </c>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>277</v>
+      </c>
+      <c r="K52" t="s">
+        <v>219</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="s">
+        <v>220</v>
+      </c>
+      <c r="N52" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>278</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" t="s">
+        <v>225</v>
+      </c>
+      <c r="N53" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53" t="s">
+        <v>103</v>
+      </c>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>279</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" t="s">
+        <v>225</v>
+      </c>
+      <c r="N54" t="s">
+        <v>67</v>
+      </c>
+      <c r="O54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M55" t="s">
+        <v>225</v>
+      </c>
+      <c r="N55" t="s">
+        <v>67</v>
+      </c>
+      <c r="O55" t="s">
+        <v>103</v>
+      </c>
+      <c r="P55" s="15"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>281</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" t="s">
+        <v>225</v>
+      </c>
+      <c r="N56" t="s">
+        <v>67</v>
+      </c>
+      <c r="O56" t="s">
+        <v>103</v>
+      </c>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>282</v>
+      </c>
+      <c r="K57" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" t="s">
+        <v>86</v>
+      </c>
+      <c r="M57" t="s">
+        <v>225</v>
+      </c>
+      <c r="N57" t="s">
+        <v>67</v>
+      </c>
+      <c r="O57" t="s">
+        <v>103</v>
+      </c>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>283</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" t="s">
+        <v>225</v>
+      </c>
+      <c r="N58" t="s">
+        <v>67</v>
+      </c>
+      <c r="O58" t="s">
+        <v>103</v>
+      </c>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>284</v>
+      </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" t="s">
+        <v>54</v>
+      </c>
+      <c r="M59" t="s">
+        <v>221</v>
+      </c>
+      <c r="N59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O59" t="s">
+        <v>103</v>
+      </c>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>285</v>
+      </c>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>54</v>
+      </c>
+      <c r="M60" t="s">
+        <v>221</v>
+      </c>
+      <c r="N60" t="s">
+        <v>67</v>
+      </c>
+      <c r="O60" t="s">
+        <v>103</v>
+      </c>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61">
         <v>5</v>
       </c>
-      <c r="F47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="J61" t="s">
+        <v>286</v>
+      </c>
+      <c r="K61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L61" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61" t="s">
         <v>89</v>
       </c>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" t="s">
-        <v>66</v>
-      </c>
-      <c r="L47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" t="s">
-        <v>66</v>
-      </c>
-      <c r="M48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" t="s">
-        <v>84</v>
-      </c>
-      <c r="I50" t="s">
-        <v>86</v>
-      </c>
-      <c r="J50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" t="s">
-        <v>62</v>
-      </c>
-      <c r="L50" t="s">
-        <v>66</v>
-      </c>
-      <c r="M50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" t="s">
-        <v>74</v>
-      </c>
-      <c r="K51" t="s">
-        <v>62</v>
-      </c>
-      <c r="L51" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" t="s">
-        <v>84</v>
-      </c>
-      <c r="I52" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" t="s">
-        <v>60</v>
-      </c>
-      <c r="J53" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="N61" t="s">
+        <v>225</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
         <v>79</v>
       </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" t="s">
-        <v>87</v>
-      </c>
-      <c r="H54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>287</v>
+      </c>
+      <c r="K62" t="s">
+        <v>47</v>
+      </c>
+      <c r="L62" t="s">
+        <v>79</v>
+      </c>
+      <c r="M62" t="s">
         <v>89</v>
       </c>
-      <c r="J54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K54" t="s">
-        <v>62</v>
-      </c>
-      <c r="L54" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="N62" t="s">
+        <v>225</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>288</v>
+      </c>
+      <c r="K63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" t="s">
+        <v>79</v>
+      </c>
+      <c r="M63" t="s">
         <v>89</v>
       </c>
-      <c r="J55" t="s">
-        <v>74</v>
-      </c>
-      <c r="K55" t="s">
-        <v>62</v>
-      </c>
-      <c r="L55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" t="s">
-        <v>68</v>
-      </c>
-      <c r="M56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" t="s">
-        <v>56</v>
-      </c>
-      <c r="K57" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" t="s">
-        <v>68</v>
-      </c>
-      <c r="M57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>58</v>
-      </c>
-      <c r="I58" t="s">
-        <v>59</v>
-      </c>
-      <c r="J58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58" t="s">
-        <v>61</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-      <c r="J59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K59" t="s">
-        <v>74</v>
-      </c>
-      <c r="L59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M59" t="s">
-        <v>66</v>
-      </c>
-      <c r="N59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" t="s">
-        <v>87</v>
-      </c>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="N63" t="s">
+        <v>225</v>
+      </c>
+      <c r="O63" t="s">
+        <v>67</v>
+      </c>
+      <c r="P63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>289</v>
+      </c>
+      <c r="K64" t="s">
+        <v>49</v>
+      </c>
+      <c r="L64" t="s">
+        <v>79</v>
+      </c>
+      <c r="M64" t="s">
         <v>89</v>
       </c>
-      <c r="K60" t="s">
-        <v>74</v>
-      </c>
-      <c r="L60" t="s">
-        <v>62</v>
-      </c>
-      <c r="M60" t="s">
-        <v>66</v>
-      </c>
-      <c r="N60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61" t="s">
-        <v>74</v>
-      </c>
-      <c r="L61" t="s">
-        <v>62</v>
-      </c>
-      <c r="M61" t="s">
-        <v>66</v>
-      </c>
-      <c r="N61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s">
-        <v>87</v>
-      </c>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-      <c r="J62" t="s">
-        <v>89</v>
-      </c>
-      <c r="K62" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" t="s">
-        <v>62</v>
-      </c>
-      <c r="M62" t="s">
-        <v>66</v>
-      </c>
-      <c r="N62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" t="s">
-        <v>86</v>
-      </c>
-      <c r="K63" t="s">
-        <v>74</v>
-      </c>
-      <c r="L63" t="s">
-        <v>62</v>
-      </c>
-      <c r="M63" t="s">
-        <v>66</v>
-      </c>
-      <c r="N63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>155</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" t="s">
-        <v>84</v>
-      </c>
-      <c r="J64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K64" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" t="s">
-        <v>62</v>
-      </c>
-      <c r="M64" t="s">
-        <v>66</v>
-      </c>
       <c r="N64" t="s">
-        <v>67</v>
+        <v>225</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="K65" t="s">
-        <v>61</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="L65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" t="s">
+        <v>89</v>
+      </c>
+      <c r="N65" t="s">
+        <v>225</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" t="s">
-        <v>77</v>
-      </c>
-      <c r="H66" t="s">
-        <v>73</v>
-      </c>
-      <c r="I66" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="K66" t="s">
-        <v>61</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="L66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M66" t="s">
+        <v>89</v>
+      </c>
+      <c r="N66" t="s">
+        <v>225</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>158</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" t="s">
-        <v>58</v>
-      </c>
-      <c r="I67" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="K67" t="s">
-        <v>61</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M67" t="s">
+        <v>89</v>
+      </c>
+      <c r="N67" t="s">
+        <v>225</v>
+      </c>
+      <c r="O67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -9829,978 +10122,69 @@
       <c r="B68" t="s">
         <v>78</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>159</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>293</v>
+      </c>
+      <c r="K68" t="s">
         <v>45</v>
       </c>
-      <c r="H68" t="s">
+      <c r="L68" t="s">
         <v>78</v>
       </c>
-      <c r="I68" t="s">
-        <v>88</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="M68" t="s">
         <v>89</v>
       </c>
-      <c r="K68" t="s">
-        <v>74</v>
-      </c>
-      <c r="L68" t="s">
-        <v>62</v>
-      </c>
-      <c r="M68" t="s">
-        <v>66</v>
-      </c>
       <c r="N68" t="s">
-        <v>67</v>
+        <v>225</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>160</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="K69" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="L69" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M69" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>161</v>
-      </c>
-      <c r="G70" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" t="s">
-        <v>72</v>
-      </c>
-      <c r="I70" t="s">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s">
-        <v>88</v>
-      </c>
-      <c r="K70" t="s">
-        <v>89</v>
-      </c>
-      <c r="L70" t="s">
-        <v>74</v>
-      </c>
-      <c r="M70" t="s">
-        <v>62</v>
-      </c>
-      <c r="N70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>162</v>
-      </c>
-      <c r="G71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s">
-        <v>73</v>
-      </c>
-      <c r="J71" t="s">
-        <v>59</v>
-      </c>
-      <c r="K71" t="s">
-        <v>60</v>
-      </c>
-      <c r="L71" t="s">
-        <v>61</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N71" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>163</v>
-      </c>
-      <c r="G72" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s">
-        <v>73</v>
-      </c>
-      <c r="J72" t="s">
-        <v>59</v>
-      </c>
-      <c r="K72" t="s">
-        <v>60</v>
-      </c>
-      <c r="L72" t="s">
-        <v>61</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>164</v>
-      </c>
-      <c r="G73" t="s">
-        <v>49</v>
-      </c>
-      <c r="H73" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s">
-        <v>87</v>
-      </c>
-      <c r="J73" t="s">
-        <v>88</v>
-      </c>
-      <c r="K73" t="s">
-        <v>89</v>
-      </c>
-      <c r="L73" t="s">
-        <v>74</v>
-      </c>
-      <c r="M73" t="s">
-        <v>62</v>
-      </c>
-      <c r="N73" t="s">
-        <v>66</v>
-      </c>
-      <c r="O73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>165</v>
-      </c>
-      <c r="G74" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" t="s">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s">
-        <v>73</v>
-      </c>
-      <c r="J74" t="s">
-        <v>59</v>
-      </c>
-      <c r="K74" t="s">
-        <v>60</v>
-      </c>
-      <c r="L74" t="s">
-        <v>61</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75" t="s">
-        <v>76</v>
-      </c>
-      <c r="H75" t="s">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s">
-        <v>73</v>
-      </c>
-      <c r="J75" t="s">
-        <v>59</v>
-      </c>
-      <c r="K75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L75" t="s">
-        <v>61</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" t="s">
-        <v>81</v>
-      </c>
-      <c r="D76" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>167</v>
-      </c>
-      <c r="G76" t="s">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s">
-        <v>79</v>
-      </c>
-      <c r="I76" t="s">
-        <v>87</v>
-      </c>
-      <c r="J76" t="s">
-        <v>88</v>
-      </c>
-      <c r="K76" t="s">
-        <v>89</v>
-      </c>
-      <c r="L76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M76" t="s">
-        <v>62</v>
-      </c>
-      <c r="N76" t="s">
-        <v>66</v>
-      </c>
-      <c r="O76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>168</v>
-      </c>
-      <c r="G77" t="s">
-        <v>71</v>
-      </c>
-      <c r="H77" t="s">
-        <v>72</v>
-      </c>
-      <c r="I77" t="s">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s">
-        <v>88</v>
-      </c>
-      <c r="K77" t="s">
-        <v>89</v>
-      </c>
-      <c r="L77" t="s">
-        <v>74</v>
-      </c>
-      <c r="M77" t="s">
-        <v>62</v>
-      </c>
-      <c r="N77" t="s">
-        <v>66</v>
-      </c>
-      <c r="O77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>169</v>
-      </c>
-      <c r="G78" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" t="s">
-        <v>80</v>
-      </c>
-      <c r="I78" t="s">
-        <v>79</v>
-      </c>
-      <c r="J78" t="s">
-        <v>87</v>
-      </c>
-      <c r="K78" t="s">
-        <v>88</v>
-      </c>
-      <c r="L78" t="s">
-        <v>89</v>
-      </c>
-      <c r="M78" t="s">
-        <v>74</v>
-      </c>
-      <c r="N78" t="s">
-        <v>62</v>
-      </c>
-      <c r="O78" t="s">
-        <v>66</v>
-      </c>
-      <c r="P78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>170</v>
-      </c>
-      <c r="G79" t="s">
-        <v>81</v>
-      </c>
-      <c r="H79" t="s">
-        <v>80</v>
-      </c>
-      <c r="I79" t="s">
-        <v>79</v>
-      </c>
-      <c r="J79" t="s">
-        <v>87</v>
-      </c>
-      <c r="K79" t="s">
-        <v>88</v>
-      </c>
-      <c r="L79" t="s">
-        <v>89</v>
-      </c>
-      <c r="M79" t="s">
-        <v>74</v>
-      </c>
-      <c r="N79" t="s">
-        <v>62</v>
-      </c>
-      <c r="O79" t="s">
-        <v>66</v>
-      </c>
-      <c r="P79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>171</v>
-      </c>
-      <c r="G80" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" t="s">
-        <v>71</v>
-      </c>
-      <c r="I80" t="s">
-        <v>72</v>
-      </c>
-      <c r="J80" t="s">
-        <v>78</v>
-      </c>
-      <c r="K80" t="s">
-        <v>88</v>
-      </c>
-      <c r="L80" t="s">
-        <v>89</v>
-      </c>
-      <c r="M80" t="s">
-        <v>74</v>
-      </c>
-      <c r="N80" t="s">
-        <v>62</v>
-      </c>
-      <c r="O80" t="s">
-        <v>66</v>
-      </c>
-      <c r="P80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>172</v>
-      </c>
-      <c r="G81" t="s">
-        <v>51</v>
-      </c>
-      <c r="H81" t="s">
-        <v>71</v>
-      </c>
-      <c r="I81" t="s">
-        <v>72</v>
-      </c>
-      <c r="J81" t="s">
-        <v>78</v>
-      </c>
-      <c r="K81" t="s">
-        <v>88</v>
-      </c>
-      <c r="L81" t="s">
-        <v>89</v>
-      </c>
-      <c r="M81" t="s">
-        <v>74</v>
-      </c>
-      <c r="N81" t="s">
-        <v>62</v>
-      </c>
-      <c r="O81" t="s">
-        <v>66</v>
-      </c>
-      <c r="P81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>173</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" t="s">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s">
-        <v>73</v>
-      </c>
-      <c r="K82" t="s">
-        <v>59</v>
-      </c>
-      <c r="L82" t="s">
-        <v>60</v>
-      </c>
-      <c r="M82" t="s">
-        <v>61</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P82" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>174</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s">
-        <v>73</v>
-      </c>
-      <c r="K83" t="s">
-        <v>59</v>
-      </c>
-      <c r="L83" t="s">
-        <v>60</v>
-      </c>
-      <c r="M83" t="s">
-        <v>61</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P83" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>175</v>
-      </c>
-      <c r="G84" t="s">
-        <v>48</v>
-      </c>
-      <c r="H84" t="s">
-        <v>81</v>
-      </c>
-      <c r="I84" t="s">
-        <v>80</v>
-      </c>
-      <c r="J84" t="s">
-        <v>79</v>
-      </c>
-      <c r="K84" t="s">
-        <v>87</v>
-      </c>
-      <c r="L84" t="s">
-        <v>88</v>
-      </c>
-      <c r="M84" t="s">
-        <v>89</v>
-      </c>
-      <c r="N84" t="s">
-        <v>74</v>
-      </c>
-      <c r="O84" t="s">
-        <v>62</v>
-      </c>
-      <c r="P84" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H85" t="s">
-        <v>51</v>
-      </c>
-      <c r="I85" t="s">
-        <v>71</v>
-      </c>
-      <c r="J85" t="s">
-        <v>72</v>
-      </c>
-      <c r="K85" t="s">
-        <v>78</v>
-      </c>
-      <c r="L85" t="s">
-        <v>88</v>
-      </c>
-      <c r="M85" t="s">
-        <v>89</v>
-      </c>
-      <c r="N85" t="s">
-        <v>74</v>
-      </c>
-      <c r="O85" t="s">
-        <v>62</v>
-      </c>
-      <c r="P85" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>177</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
-        <v>81</v>
-      </c>
-      <c r="I86" t="s">
-        <v>80</v>
-      </c>
-      <c r="J86" t="s">
-        <v>79</v>
-      </c>
-      <c r="K86" t="s">
-        <v>87</v>
-      </c>
-      <c r="L86" t="s">
-        <v>88</v>
-      </c>
-      <c r="M86" t="s">
-        <v>89</v>
-      </c>
-      <c r="N86" t="s">
-        <v>74</v>
-      </c>
-      <c r="O86" t="s">
-        <v>62</v>
-      </c>
-      <c r="P86" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>178</v>
-      </c>
-      <c r="G87" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" t="s">
-        <v>71</v>
-      </c>
-      <c r="J87" t="s">
-        <v>72</v>
-      </c>
-      <c r="K87" t="s">
-        <v>78</v>
-      </c>
-      <c r="L87" t="s">
-        <v>88</v>
-      </c>
-      <c r="M87" t="s">
-        <v>89</v>
-      </c>
-      <c r="N87" t="s">
-        <v>74</v>
-      </c>
-      <c r="O87" t="s">
-        <v>62</v>
-      </c>
-      <c r="P87" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>67</v>
+        <v>225</v>
+      </c>
+      <c r="O69" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10814,7 +10198,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A1:E24"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10838,14 +10222,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="E2" s="9">
         <v>-2</v>
@@ -10853,13 +10237,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>67</v>
@@ -10870,16 +10254,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="E4" s="9">
         <v>-1</v>
@@ -10887,13 +10271,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>26</v>
@@ -10904,13 +10288,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>42</v>
@@ -10924,7 +10308,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>66</v>
@@ -10938,10 +10322,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -10958,7 +10342,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -10975,7 +10359,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -10989,10 +10373,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -11006,13 +10390,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>37</v>
@@ -11026,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -11043,7 +10427,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -11060,7 +10444,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -11074,13 +10458,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>41</v>
@@ -11094,7 +10478,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -11111,7 +10495,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -11125,16 +10509,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E19" s="6">
         <v>3</v>
@@ -11145,7 +10529,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -11159,10 +10543,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -11179,7 +10563,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -11196,7 +10580,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -11213,7 +10597,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>

--- a/LanguageData.xlsx
+++ b/LanguageData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="346">
   <si>
     <t>Papuan</t>
   </si>
@@ -906,6 +906,159 @@
   </si>
   <si>
     <t>Spanish Romance Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.5.2</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>3.5.3</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>3.4.3</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.1.5</t>
+  </si>
+  <si>
+    <t>3.3.1.4</t>
+  </si>
+  <si>
+    <t>3.3.1.2</t>
+  </si>
+  <si>
+    <t>3.3.1.3</t>
+  </si>
+  <si>
+    <t>3.3.1.1</t>
+  </si>
+  <si>
+    <t>3.2.1.4</t>
+  </si>
+  <si>
+    <t>3.2.1.3</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>3.2.1.2</t>
+  </si>
+  <si>
+    <t>3.3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3.1</t>
+  </si>
+  <si>
+    <t>3.2.2.5</t>
+  </si>
+  <si>
+    <t>3.2.2.6</t>
+  </si>
+  <si>
+    <t>3.2.2.4</t>
+  </si>
+  <si>
+    <t>3.2.2.2</t>
+  </si>
+  <si>
+    <t>3.2.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2.3</t>
+  </si>
+  <si>
+    <t>3.4.1.1</t>
+  </si>
+  <si>
+    <t>3.4.1.2</t>
+  </si>
+  <si>
+    <t>3.2.1.3.1</t>
+  </si>
+  <si>
+    <t>3.2.1.3.2</t>
+  </si>
+  <si>
+    <t>3.2.1.3.3</t>
+  </si>
+  <si>
+    <t>3.2.1.3.4</t>
+  </si>
+  <si>
+    <t>3.2.1.2.1</t>
+  </si>
+  <si>
+    <t>3.2.1.2.2</t>
+  </si>
+  <si>
+    <t>3.2.1.2.4</t>
+  </si>
+  <si>
+    <t>3.2.1.2.5</t>
+  </si>
+  <si>
+    <t>3.2.1.2.3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="787">
+  <cellStyleXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1828,8 +1981,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1847,8 +2016,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="787">
+  <cellStyles count="803">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2242,6 +2414,14 @@
     <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2635,9 +2815,23 @@
     <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2948,30 +3142,30 @@
     </tableColumn>
     <tableColumn id="4" name="Classes" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Self" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Father" dataDxfId="16"/>
-    <tableColumn id="9" name="F2" dataDxfId="15"/>
-    <tableColumn id="10" name="F3" dataDxfId="14"/>
-    <tableColumn id="11" name="F4" dataDxfId="13"/>
-    <tableColumn id="12" name="F5" dataDxfId="12"/>
-    <tableColumn id="13" name="F6" dataDxfId="11"/>
-    <tableColumn id="14" name="F7" dataDxfId="10"/>
-    <tableColumn id="15" name="F8" dataDxfId="9"/>
-    <tableColumn id="16" name="F9" dataDxfId="8"/>
-    <tableColumn id="17" name="F10" dataDxfId="7"/>
-    <tableColumn id="18" name="F11" dataDxfId="6"/>
-    <tableColumn id="19" name="F12" dataDxfId="5"/>
+    <tableColumn id="8" name="Father" dataDxfId="18"/>
+    <tableColumn id="9" name="F2" dataDxfId="17"/>
+    <tableColumn id="10" name="F3" dataDxfId="16"/>
+    <tableColumn id="11" name="F4" dataDxfId="15"/>
+    <tableColumn id="12" name="F5" dataDxfId="14"/>
+    <tableColumn id="13" name="F6" dataDxfId="13"/>
+    <tableColumn id="14" name="F7" dataDxfId="12"/>
+    <tableColumn id="15" name="F8" dataDxfId="11"/>
+    <tableColumn id="16" name="F9" dataDxfId="10"/>
+    <tableColumn id="17" name="F10" dataDxfId="9"/>
+    <tableColumn id="18" name="F11" dataDxfId="8"/>
+    <tableColumn id="19" name="F12" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:P69" totalsRowShown="0">
-  <autoFilter ref="A1:P69"/>
-  <sortState ref="A2:X69">
-    <sortCondition ref="I1:I69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:R69" totalsRowShown="0">
+  <autoFilter ref="A1:R69"/>
+  <sortState ref="A2:R69">
+    <sortCondition ref="L1:L69"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="18">
     <tableColumn id="1" name="Language" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Parent" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Child1" dataCellStyle="Normal"/>
@@ -2982,12 +3176,16 @@
     <tableColumn id="25" name="Child6"/>
     <tableColumn id="26" name="Level"/>
     <tableColumn id="4" name="Classes" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Designation" dataDxfId="1"/>
+    <tableColumn id="14" name="Order" dataDxfId="0">
+      <calculatedColumnFormula>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" name="Self" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Father" dataDxfId="4"/>
-    <tableColumn id="9" name="F2" dataDxfId="3"/>
-    <tableColumn id="10" name="F3" dataDxfId="2"/>
-    <tableColumn id="11" name="F4" dataDxfId="1"/>
-    <tableColumn id="12" name="F5" dataDxfId="0"/>
+    <tableColumn id="8" name="Father" dataDxfId="6"/>
+    <tableColumn id="9" name="F2" dataDxfId="5"/>
+    <tableColumn id="10" name="F3" dataDxfId="4"/>
+    <tableColumn id="11" name="F4" dataDxfId="3"/>
+    <tableColumn id="12" name="F5" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8026,19 +8224,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="17"/>
+    <col min="12" max="12" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -8069,26 +8269,32 @@
       <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M1" t="s">
         <v>202</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>203</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>204</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>205</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>206</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8107,15 +8313,22 @@
       <c r="J2" t="s">
         <v>227</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -8137,16 +8350,23 @@
       <c r="J3" t="s">
         <v>228</v>
       </c>
-      <c r="K3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -8154,10 +8374,10 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -8168,527 +8388,635 @@
       <c r="J4" t="s">
         <v>229</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>10000</v>
+      </c>
+      <c r="M4" t="s">
         <v>92</v>
       </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L5" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>11000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>12000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="L7" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>13000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>224</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J8" t="s">
         <v>230</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K8" s="17">
+        <v>2</v>
+      </c>
+      <c r="L8" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>20000</v>
+      </c>
+      <c r="M8" t="s">
         <v>222</v>
       </c>
-      <c r="L5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>233</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>234</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>92</v>
+        <v>236</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="L9" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>21000</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>222</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>235</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>92</v>
+        <v>238</v>
+      </c>
+      <c r="K10" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L10" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>22000</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>222</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>222</v>
       </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>236</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L11" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>23000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>224</v>
+      </c>
+      <c r="N11" t="s">
         <v>222</v>
       </c>
-      <c r="M11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>224</v>
       </c>
-      <c r="B12" t="s">
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="L12" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>23100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>223</v>
+      </c>
+      <c r="N12" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" t="s">
         <v>222</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="L13" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>23200</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>224</v>
+      </c>
+      <c r="O13" t="s">
+        <v>222</v>
+      </c>
+      <c r="P13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>23300</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" t="s">
+        <v>222</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>237</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="B15" t="s">
         <v>224</v>
       </c>
-      <c r="L12" t="s">
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L15" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>23400</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>224</v>
+      </c>
+      <c r="O15" t="s">
         <v>222</v>
       </c>
-      <c r="M12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="P15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>222</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>238</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>222</v>
-      </c>
-      <c r="M13" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>239</v>
-      </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" t="s">
-        <v>222</v>
-      </c>
-      <c r="M14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>240</v>
-      </c>
-      <c r="K15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" t="s">
-        <v>103</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>241</v>
-      </c>
-      <c r="K16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="L16" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>24000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>222</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" t="s">
         <v>53</v>
       </c>
-      <c r="L16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K17" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" t="s">
-        <v>67</v>
+        <v>231</v>
+      </c>
+      <c r="K17" s="17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>30000</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>243</v>
-      </c>
-      <c r="K18" t="s">
-        <v>221</v>
-      </c>
-      <c r="L18" t="s">
-        <v>67</v>
+        <v>240</v>
+      </c>
+      <c r="K18" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="L18" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>31000</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:16">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>244</v>
-      </c>
-      <c r="K19" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" t="s">
-        <v>67</v>
+        <v>250</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="L19" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>31100</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" t="s">
-        <v>94</v>
+        <v>247</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="L20" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>31200</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>35</v>
+      </c>
+      <c r="N20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>246</v>
-      </c>
-      <c r="K21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>94</v>
+        <v>248</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L21" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>31300</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -8697,711 +9025,945 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>247</v>
-      </c>
-      <c r="K22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L22" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>31400</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
         <v>65</v>
       </c>
-      <c r="M22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" t="s">
-        <v>103</v>
-      </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>65</v>
+        <v>242</v>
+      </c>
+      <c r="K23" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="L23" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32000</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
-      </c>
-      <c r="O23" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
       <c r="P23" s="15"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>65</v>
+        <v>254</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="L24" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32100</v>
       </c>
       <c r="M24" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
-      </c>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:16">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" t="s">
-        <v>65</v>
+        <v>274</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="L25" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32110</v>
       </c>
       <c r="M25" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:16">
+        <v>89</v>
+      </c>
+      <c r="O25" t="s">
+        <v>225</v>
+      </c>
+      <c r="P25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" t="s">
-        <v>53</v>
+        <v>275</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="L26" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32120</v>
       </c>
       <c r="M26" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>89</v>
+      </c>
+      <c r="O26" t="s">
+        <v>225</v>
+      </c>
+      <c r="P26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
-      </c>
-      <c r="K27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" t="s">
-        <v>53</v>
+        <v>292</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="L27" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32121</v>
       </c>
       <c r="M27" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>103</v>
-      </c>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="1:16">
+        <v>78</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" t="s">
-        <v>53</v>
+        <v>290</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="L28" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32122</v>
       </c>
       <c r="M28" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
-      </c>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="1:16">
+        <v>78</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
+      <c r="P29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="L30" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32124</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="L31" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L32" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32130</v>
+      </c>
+      <c r="M32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>103</v>
+      </c>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="L33" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32131</v>
+      </c>
+      <c r="M33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="L34" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32132</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P34" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>67</v>
+      </c>
+      <c r="R34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="L35" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32133</v>
+      </c>
+      <c r="M35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32134</v>
+      </c>
+      <c r="M36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>67</v>
+      </c>
+      <c r="R36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32140</v>
+      </c>
+      <c r="M37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>89</v>
+      </c>
+      <c r="O37" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>103</v>
+      </c>
+      <c r="R37" s="15"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>254</v>
-      </c>
-      <c r="K29" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" t="s">
-        <v>225</v>
-      </c>
-      <c r="M29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" t="s">
-        <v>103</v>
-      </c>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F38" t="s">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G38" t="s">
         <v>20</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H38" t="s">
         <v>2</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>255</v>
-      </c>
-      <c r="K30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L30" t="s">
-        <v>225</v>
-      </c>
-      <c r="M30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" t="s">
-        <v>103</v>
-      </c>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>256</v>
-      </c>
-      <c r="K31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" t="s">
-        <v>224</v>
-      </c>
-      <c r="M31" t="s">
-        <v>222</v>
-      </c>
-      <c r="N31" t="s">
-        <v>103</v>
-      </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32" t="s">
-        <v>257</v>
-      </c>
-      <c r="K32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" t="s">
-        <v>222</v>
-      </c>
-      <c r="N32" t="s">
-        <v>103</v>
-      </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>224</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>258</v>
-      </c>
-      <c r="K33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" t="s">
-        <v>224</v>
-      </c>
-      <c r="M33" t="s">
-        <v>222</v>
-      </c>
-      <c r="N33" t="s">
-        <v>103</v>
-      </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34" t="s">
-        <v>259</v>
-      </c>
-      <c r="K34" t="s">
-        <v>223</v>
-      </c>
-      <c r="L34" t="s">
-        <v>224</v>
-      </c>
-      <c r="M34" t="s">
-        <v>222</v>
-      </c>
-      <c r="N34" t="s">
-        <v>103</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
-        <v>260</v>
-      </c>
-      <c r="K35" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" t="s">
-        <v>221</v>
-      </c>
-      <c r="M35" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" t="s">
-        <v>103</v>
-      </c>
-      <c r="O35" s="15"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" t="s">
-        <v>221</v>
-      </c>
-      <c r="M36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" t="s">
-        <v>103</v>
-      </c>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" t="s">
-        <v>221</v>
-      </c>
-      <c r="M37" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" t="s">
-        <v>103</v>
-      </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>263</v>
-      </c>
-      <c r="K38" t="s">
-        <v>73</v>
-      </c>
-      <c r="L38" t="s">
-        <v>220</v>
+        <v>255</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32200</v>
       </c>
       <c r="M38" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="N38" t="s">
-        <v>103</v>
-      </c>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16">
+        <v>225</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>264</v>
-      </c>
-      <c r="K39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" t="s">
-        <v>220</v>
+        <v>282</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32210</v>
       </c>
       <c r="M39" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N39" t="s">
-        <v>103</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="1:16">
+        <v>86</v>
+      </c>
+      <c r="O39" t="s">
+        <v>225</v>
+      </c>
+      <c r="P39" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>103</v>
+      </c>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
-      </c>
-      <c r="K40" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" t="s">
-        <v>220</v>
+        <v>281</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="L40" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32220</v>
       </c>
       <c r="M40" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>103</v>
-      </c>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="1:16">
+        <v>86</v>
+      </c>
+      <c r="O40" t="s">
+        <v>225</v>
+      </c>
+      <c r="P40" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>103</v>
+      </c>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>266</v>
-      </c>
-      <c r="K41" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" t="s">
-        <v>220</v>
+        <v>283</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32230</v>
       </c>
       <c r="M41" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>103</v>
-      </c>
-      <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="1:16">
+        <v>86</v>
+      </c>
+      <c r="O41" t="s">
+        <v>225</v>
+      </c>
+      <c r="P41" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>103</v>
+      </c>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I42">
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>267</v>
-      </c>
-      <c r="K42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" t="s">
-        <v>73</v>
+        <v>280</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L42" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32240</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="O42" t="s">
-        <v>103</v>
-      </c>
-      <c r="P42" s="15"/>
-    </row>
-    <row r="43" spans="1:16">
+        <v>225</v>
+      </c>
+      <c r="P42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R42" s="15"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I43">
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
-      </c>
-      <c r="K43" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" t="s">
-        <v>73</v>
+        <v>278</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32250</v>
       </c>
       <c r="M43" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="N43" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
-      </c>
-      <c r="P43" s="15"/>
-    </row>
-    <row r="44" spans="1:16">
+        <v>225</v>
+      </c>
+      <c r="P43" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>103</v>
+      </c>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I44">
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>269</v>
-      </c>
-      <c r="K44" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="L44" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>32260</v>
+      </c>
+      <c r="M44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" t="s">
+        <v>225</v>
+      </c>
+      <c r="P44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>103</v>
+      </c>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="M44" t="s">
-        <v>220</v>
-      </c>
-      <c r="N44" t="s">
-        <v>67</v>
-      </c>
-      <c r="O44" t="s">
-        <v>103</v>
-      </c>
-      <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>73</v>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>270</v>
-      </c>
-      <c r="K45" t="s">
-        <v>6</v>
-      </c>
-      <c r="L45" t="s">
-        <v>73</v>
+        <v>244</v>
+      </c>
+      <c r="K45" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="L45" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33000</v>
       </c>
       <c r="M45" t="s">
         <v>220</v>
@@ -9412,386 +9974,460 @@
       <c r="O45" t="s">
         <v>103</v>
       </c>
-      <c r="P45" s="15"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="8"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
         <v>31</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>263</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33100</v>
+      </c>
+      <c r="M46" t="s">
         <v>73</v>
       </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="J46" t="s">
-        <v>271</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="N46" t="s">
+        <v>220</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
         <v>31</v>
       </c>
-      <c r="L46" t="s">
+      <c r="B47" t="s">
         <v>73</v>
-      </c>
-      <c r="M46" t="s">
-        <v>220</v>
-      </c>
-      <c r="N46" t="s">
-        <v>67</v>
-      </c>
-      <c r="O46" t="s">
-        <v>103</v>
-      </c>
-      <c r="P46" s="15"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
       </c>
       <c r="I47">
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>272</v>
-      </c>
-      <c r="K47" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" t="s">
-        <v>89</v>
+        <v>271</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33110</v>
       </c>
       <c r="M47" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O47" t="s">
-        <v>103</v>
-      </c>
-      <c r="P47" s="15"/>
-    </row>
-    <row r="48" spans="1:16">
+        <v>220</v>
+      </c>
+      <c r="P47" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>103</v>
+      </c>
+      <c r="R47" s="15"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I48">
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>273</v>
-      </c>
-      <c r="K48" t="s">
-        <v>79</v>
-      </c>
-      <c r="L48" t="s">
-        <v>89</v>
+        <v>269</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33120</v>
       </c>
       <c r="M48" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="N48" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O48" t="s">
-        <v>103</v>
-      </c>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="1:16">
+        <v>220</v>
+      </c>
+      <c r="P48" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>103</v>
+      </c>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I49">
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>274</v>
-      </c>
-      <c r="K49" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" t="s">
-        <v>89</v>
+        <v>270</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="L49" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33130</v>
       </c>
       <c r="M49" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="N49" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O49" t="s">
-        <v>103</v>
-      </c>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="1:16">
+        <v>220</v>
+      </c>
+      <c r="P49" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>103</v>
+      </c>
+      <c r="R49" s="15"/>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I50">
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
-      </c>
-      <c r="K50" t="s">
-        <v>78</v>
-      </c>
-      <c r="L50" t="s">
-        <v>89</v>
+        <v>268</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="L50" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33140</v>
       </c>
       <c r="M50" t="s">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O50" t="s">
-        <v>103</v>
-      </c>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="1:16">
+        <v>220</v>
+      </c>
+      <c r="P50" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>103</v>
+      </c>
+      <c r="R50" s="15"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I51">
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>276</v>
-      </c>
-      <c r="K51" t="s">
+        <v>267</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="L51" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33150</v>
+      </c>
+      <c r="M51" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51" t="s">
+        <v>220</v>
+      </c>
+      <c r="P51" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>103</v>
+      </c>
+      <c r="R51" s="15"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>266</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="L52" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33200</v>
+      </c>
+      <c r="M52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" t="s">
+        <v>220</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="s">
         <v>1</v>
       </c>
-      <c r="L51" t="s">
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>265</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L53" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33300</v>
+      </c>
+      <c r="M53" t="s">
         <v>25</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N53" t="s">
         <v>220</v>
       </c>
-      <c r="N51" t="s">
-        <v>67</v>
-      </c>
-      <c r="O51" t="s">
-        <v>103</v>
-      </c>
-      <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" t="s">
+      <c r="O53" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
         <v>219</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>25</v>
-      </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
-      <c r="J52" t="s">
-        <v>277</v>
-      </c>
-      <c r="K52" t="s">
-        <v>219</v>
-      </c>
-      <c r="L52" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" t="s">
-        <v>220</v>
-      </c>
-      <c r="N52" t="s">
-        <v>67</v>
-      </c>
-      <c r="O52" t="s">
-        <v>103</v>
-      </c>
-      <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53" t="s">
-        <v>278</v>
-      </c>
-      <c r="K53" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" t="s">
-        <v>86</v>
-      </c>
-      <c r="M53" t="s">
-        <v>225</v>
-      </c>
-      <c r="N53" t="s">
-        <v>67</v>
-      </c>
-      <c r="O53" t="s">
-        <v>103</v>
-      </c>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
       </c>
       <c r="I54">
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>279</v>
-      </c>
-      <c r="K54" t="s">
-        <v>2</v>
-      </c>
-      <c r="L54" t="s">
-        <v>86</v>
+        <v>277</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="L54" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33310</v>
       </c>
       <c r="M54" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N54" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O54" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="1:16">
+        <v>220</v>
+      </c>
+      <c r="P54" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>103</v>
+      </c>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I55">
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>280</v>
-      </c>
-      <c r="K55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" t="s">
-        <v>86</v>
+        <v>276</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="L55" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33320</v>
       </c>
       <c r="M55" t="s">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O55" t="s">
-        <v>103</v>
-      </c>
-      <c r="P55" s="15"/>
-    </row>
-    <row r="56" spans="1:16">
+        <v>220</v>
+      </c>
+      <c r="P55" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>103</v>
+      </c>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>281</v>
-      </c>
-      <c r="K56" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" t="s">
-        <v>86</v>
+        <v>264</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L56" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>33400</v>
       </c>
       <c r="M56" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="N56" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="O56" t="s">
-        <v>103</v>
-      </c>
-      <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="P56" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>282</v>
-      </c>
-      <c r="K57" t="s">
-        <v>34</v>
-      </c>
-      <c r="L57" t="s">
-        <v>86</v>
+        <v>243</v>
+      </c>
+      <c r="K57" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="L57" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34000</v>
       </c>
       <c r="M57" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
@@ -9800,38 +10436,51 @@
         <v>103</v>
       </c>
       <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="15"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>283</v>
-      </c>
-      <c r="K58" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" t="s">
-        <v>86</v>
+        <v>262</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="L58" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34100</v>
       </c>
       <c r="M58" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="N58" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="O58" t="s">
-        <v>103</v>
-      </c>
-      <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="P58" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -9844,24 +10493,31 @@
       <c r="J59" t="s">
         <v>284</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="L59" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34110</v>
+      </c>
+      <c r="M59" t="s">
         <v>29</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>54</v>
       </c>
-      <c r="M59" t="s">
+      <c r="O59" t="s">
         <v>221</v>
       </c>
-      <c r="N59" t="s">
-        <v>67</v>
-      </c>
-      <c r="O59" t="s">
-        <v>103</v>
-      </c>
-      <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="P59" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>103</v>
+      </c>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -9874,310 +10530,337 @@
       <c r="J60" t="s">
         <v>285</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="L60" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34120</v>
+      </c>
+      <c r="M60" t="s">
         <v>24</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>54</v>
       </c>
-      <c r="M60" t="s">
+      <c r="O60" t="s">
         <v>221</v>
       </c>
-      <c r="N60" t="s">
-        <v>67</v>
-      </c>
-      <c r="O60" t="s">
-        <v>103</v>
-      </c>
-      <c r="P60" s="8"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="P60" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>103</v>
+      </c>
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>261</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="L61" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34200</v>
+      </c>
+      <c r="M61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" t="s">
+        <v>221</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>221</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="L62" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34300</v>
+      </c>
+      <c r="M62" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" t="s">
+        <v>221</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>241</v>
+      </c>
+      <c r="K63" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="L63" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35000</v>
+      </c>
+      <c r="M63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N63" t="s">
+        <v>67</v>
+      </c>
+      <c r="O63" t="s">
+        <v>103</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="15"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>253</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="L64" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35100</v>
+      </c>
+      <c r="M64" t="s">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>53</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>251</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="L65" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35200</v>
+      </c>
+      <c r="M65" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" t="s">
+        <v>53</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>252</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L66" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35300</v>
+      </c>
+      <c r="M66" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66" t="s">
+        <v>53</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q66" s="8"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="J61" t="s">
-        <v>286</v>
-      </c>
-      <c r="K61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L61" t="s">
-        <v>79</v>
-      </c>
-      <c r="M61" t="s">
-        <v>89</v>
-      </c>
-      <c r="N61" t="s">
-        <v>225</v>
-      </c>
-      <c r="O61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="I62">
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>232</v>
+      </c>
+      <c r="K67" s="17">
+        <v>4</v>
+      </c>
+      <c r="L67" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>40000</v>
+      </c>
+      <c r="M67" t="s">
+        <v>94</v>
+      </c>
+      <c r="N67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
         <v>5</v>
       </c>
-      <c r="J62" t="s">
-        <v>287</v>
-      </c>
-      <c r="K62" t="s">
-        <v>47</v>
-      </c>
-      <c r="L62" t="s">
-        <v>79</v>
-      </c>
-      <c r="M62" t="s">
-        <v>89</v>
-      </c>
-      <c r="N62" t="s">
-        <v>225</v>
-      </c>
-      <c r="O62" t="s">
-        <v>67</v>
-      </c>
-      <c r="P62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>79</v>
-      </c>
-      <c r="I63">
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>245</v>
+      </c>
+      <c r="K68" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L68" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>41000</v>
+      </c>
+      <c r="M68" t="s">
         <v>5</v>
       </c>
-      <c r="J63" t="s">
-        <v>288</v>
-      </c>
-      <c r="K63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" t="s">
-        <v>79</v>
-      </c>
-      <c r="M63" t="s">
-        <v>89</v>
-      </c>
-      <c r="N63" t="s">
-        <v>225</v>
-      </c>
-      <c r="O63" t="s">
-        <v>67</v>
-      </c>
-      <c r="P63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" t="s">
-        <v>79</v>
-      </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
-      <c r="J64" t="s">
-        <v>289</v>
-      </c>
-      <c r="K64" t="s">
-        <v>49</v>
-      </c>
-      <c r="L64" t="s">
-        <v>79</v>
-      </c>
-      <c r="M64" t="s">
-        <v>89</v>
-      </c>
-      <c r="N64" t="s">
-        <v>225</v>
-      </c>
-      <c r="O64" t="s">
-        <v>67</v>
-      </c>
-      <c r="P64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="I65">
-        <v>5</v>
-      </c>
-      <c r="J65" t="s">
-        <v>290</v>
-      </c>
-      <c r="K65" t="s">
-        <v>44</v>
-      </c>
-      <c r="L65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M65" t="s">
-        <v>89</v>
-      </c>
-      <c r="N65" t="s">
-        <v>225</v>
-      </c>
-      <c r="O65" t="s">
-        <v>67</v>
-      </c>
-      <c r="P65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
-        <v>291</v>
-      </c>
-      <c r="K66" t="s">
-        <v>43</v>
-      </c>
-      <c r="L66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M66" t="s">
-        <v>89</v>
-      </c>
-      <c r="N66" t="s">
-        <v>225</v>
-      </c>
-      <c r="O66" t="s">
-        <v>67</v>
-      </c>
-      <c r="P66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="J67" t="s">
-        <v>292</v>
-      </c>
-      <c r="K67" t="s">
-        <v>46</v>
-      </c>
-      <c r="L67" t="s">
-        <v>78</v>
-      </c>
-      <c r="M67" t="s">
-        <v>89</v>
-      </c>
-      <c r="N67" t="s">
-        <v>225</v>
-      </c>
-      <c r="O67" t="s">
-        <v>67</v>
-      </c>
-      <c r="P67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68">
-        <v>5</v>
-      </c>
-      <c r="J68" t="s">
-        <v>293</v>
-      </c>
-      <c r="K68" t="s">
-        <v>45</v>
-      </c>
-      <c r="L68" t="s">
-        <v>78</v>
-      </c>
-      <c r="M68" t="s">
-        <v>89</v>
-      </c>
       <c r="N68" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
-      </c>
-      <c r="P68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>294</v>
-      </c>
-      <c r="K69" t="s">
-        <v>9</v>
-      </c>
-      <c r="L69" t="s">
-        <v>78</v>
+        <v>246</v>
+      </c>
+      <c r="K69" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="L69" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>42000</v>
       </c>
       <c r="M69" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="O69" t="s">
-        <v>67</v>
-      </c>
-      <c r="P69" t="s">
-        <v>103</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LanguageData.xlsx
+++ b/LanguageData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="423">
   <si>
     <t>Papuan</t>
   </si>
@@ -710,39 +710,21 @@
     <t xml:space="preserve">Mothertongue     </t>
   </si>
   <si>
-    <t xml:space="preserve">African Mothertongue    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Amerindian Mothertongue    </t>
   </si>
   <si>
     <t xml:space="preserve">Borean Mothertongue    </t>
   </si>
   <si>
-    <t xml:space="preserve">PaleoMelanesian Mothertongue    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Khoisan African Mothertongue   </t>
   </si>
   <si>
-    <t xml:space="preserve">NigerCongo African Mothertongue   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NiloSaharan African Mothertongue   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Algic Amerindian Mothertongue   </t>
   </si>
   <si>
     <t xml:space="preserve">Meso-American Amerindian Mothertongue   </t>
   </si>
   <si>
-    <t xml:space="preserve">NaDene Amerindian Mothertongue   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SouthAmerican Amerindian Mothertongue   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Afroasiatic Borean Mothertongue   </t>
   </si>
   <si>
@@ -758,12 +740,6 @@
     <t xml:space="preserve">Ural-Altaic Borean Mothertongue   </t>
   </si>
   <si>
-    <t xml:space="preserve">Aboriginial PaleoMelanesian Mothertongue   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papuan PaleoMelanesian Mothertongue   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Berber Afroasiatic Borean Mothertongue  </t>
   </si>
   <si>
@@ -776,15 +752,9 @@
     <t xml:space="preserve">Semitic Afroasiatic Borean Mothertongue  </t>
   </si>
   <si>
-    <t xml:space="preserve">AustroAsiatic Austric Borean Mothertongue  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Austronesian Austric Borean Mothertongue  </t>
   </si>
   <si>
-    <t xml:space="preserve">TaiKadai Austric Borean Mothertongue  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Centum Indo-European Borean Mothertongue  </t>
   </si>
   <si>
@@ -797,9 +767,6 @@
     <t xml:space="preserve">Mayan Meso-American Amerindian Mothertongue  </t>
   </si>
   <si>
-    <t xml:space="preserve">OtoManguean Meso-American Amerindian Mothertongue  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Uto-Aztecan Meso-American Amerindian Mothertongue  </t>
   </si>
   <si>
@@ -809,18 +776,12 @@
     <t xml:space="preserve">Caucasian Sino-Caucasian Borean Mothertongue  </t>
   </si>
   <si>
-    <t xml:space="preserve">SinoTibetan Sino-Caucasian Borean Mothertongue  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Altaic Ural-Altaic Borean Mothertongue  </t>
   </si>
   <si>
     <t xml:space="preserve">Dravidian Ural-Altaic Borean Mothertongue  </t>
   </si>
   <si>
-    <t xml:space="preserve">PaleoSiberian Ural-Altaic Borean Mothertongue  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Uralic Ural-Altaic Borean Mothertongue  </t>
   </si>
   <si>
@@ -851,12 +812,6 @@
     <t xml:space="preserve">Romance Centum Indo-European Borean Mothertongue </t>
   </si>
   <si>
-    <t xml:space="preserve">Aleutian PaleoSiberian Ural-Altaic Borean Mothertongue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chukotian PaleoSiberian Ural-Altaic Borean Mothertongue </t>
-  </si>
-  <si>
     <t xml:space="preserve">Albanian Satem Indo-European Borean Mothertongue </t>
   </si>
   <si>
@@ -866,21 +821,12 @@
     <t xml:space="preserve">Baltic Satem Indo-European Borean Mothertongue </t>
   </si>
   <si>
-    <t xml:space="preserve">IndoAryan Satem Indo-European Borean Mothertongue </t>
-  </si>
-  <si>
     <t xml:space="preserve">Iranian Satem Indo-European Borean Mothertongue </t>
   </si>
   <si>
     <t xml:space="preserve">Slavic Satem Indo-European Borean Mothertongue </t>
   </si>
   <si>
-    <t xml:space="preserve">Sinic SinoTibetan Sino-Caucasian Borean Mothertongue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TibetoBurman SinoTibetan Sino-Caucasian Borean Mothertongue </t>
-  </si>
-  <si>
     <t>Dutch Germanic Centum Indo-European Borean Mothertongue</t>
   </si>
   <si>
@@ -896,9 +842,6 @@
     <t>French Romance Centum Indo-European Borean Mothertongue</t>
   </si>
   <si>
-    <t>GaliPortuguese Romance Centum Indo-European Borean Mothertongue</t>
-  </si>
-  <si>
     <t>Italian Romance Centum Indo-European Borean Mothertongue</t>
   </si>
   <si>
@@ -1055,10 +998,298 @@
     <t>3.2.1.2.3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Sino-Tibetan</t>
+  </si>
+  <si>
+    <t>Tibeto-Burman</t>
+  </si>
+  <si>
+    <t>Austro-Asiatic</t>
+  </si>
+  <si>
+    <t>Tai-Kadai</t>
+  </si>
+  <si>
+    <t>Paleo-Melanesian</t>
+  </si>
+  <si>
+    <t>Indo-Aryan</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Oto-Manguean</t>
+  </si>
+  <si>
+    <t>South-American</t>
+  </si>
+  <si>
+    <t>Na-Dene</t>
+  </si>
+  <si>
+    <t>Nilo-Saharan</t>
+  </si>
+  <si>
+    <t>Niger-Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger-Congo African Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilo-Saharan African Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na-Dene Amerindian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oto-Manguean Meso-American Amerindian Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South-American Amerindian Mothertongue   </t>
+  </si>
+  <si>
+    <t>Portuguese Romance Centum Indo-European Borean Mothertongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indo-Aryan Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleo-Siberian Ural-Altaic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chukotian Paleo-Siberian Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleutian Paleo-Siberian Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sino-Tibetan Sino-Caucasian Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibeto-Burman Sino-Tibetan Sino-Caucasian Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tai-Kadai Austric Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austro-Asiatic Austric Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleo-Melanesian Mothertongue    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginial Paleo-Melanesian Mothertongue   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papuan Paleo-Melanesian Mothertongue   </t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t>3.1.1.2</t>
+  </si>
+  <si>
+    <t>Arabic Semitic Afroasiatic Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>Other-Semitic</t>
+  </si>
+  <si>
+    <t>Other-Semitic Semitic Afroasiatic Borean Mothertongue</t>
+  </si>
+  <si>
+    <t>Jewish</t>
+  </si>
+  <si>
+    <t>Bantu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bantu Niger-Congo African Mothertongue   </t>
+  </si>
+  <si>
+    <t>Macro-Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro-Niger Niger-Congo African Mothertongue   </t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Siberian-Turkic</t>
+  </si>
+  <si>
+    <t>Karluk</t>
+  </si>
+  <si>
+    <t>Kipchak</t>
+  </si>
+  <si>
+    <t>Oghuz</t>
+  </si>
+  <si>
+    <t>3.3.1.1.1</t>
+  </si>
+  <si>
+    <t>3.3.1.1.2</t>
+  </si>
+  <si>
+    <t>3.3.1.1.3</t>
+  </si>
+  <si>
+    <t>3.3.1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oghuz Turkic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kipchak Turkic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siberian-Turkic Turkic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karluk Turkic Altaic Ural-Altaic Borean Mothertongue </t>
+  </si>
+  <si>
+    <t>Finnic</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>3.3.2.1</t>
+  </si>
+  <si>
+    <t>3.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnic Uralic Ural-Altaic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungarian Uralic Ural-Altaic Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t>Melanesian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanesian Paleo-Melanesian Mothertongue   </t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>East-Slavic</t>
+  </si>
+  <si>
+    <t>West-Slavic</t>
+  </si>
+  <si>
+    <t>South-Slavic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East-Slavic Slavic Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West-Slavic Slavic Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South-Slavic Slavic Satem Indo-European Borean Mothertongue </t>
+  </si>
+  <si>
+    <t>3.2.2.3.1</t>
+  </si>
+  <si>
+    <t>3.2.2.3.3</t>
+  </si>
+  <si>
+    <t>3.2.2.3.2</t>
+  </si>
+  <si>
+    <t>Sinitic</t>
+  </si>
+  <si>
+    <t>Tibetan</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burmese Tibeto-Burman Sino-Tibetan Sino-Caucasian Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibetan Tibeto-Burman Sino-Tibetan Sino-Caucasian Borean Mothertongue </t>
+  </si>
+  <si>
+    <t>3.4.1.2.1</t>
+  </si>
+  <si>
+    <t>3.4.1.2.2</t>
+  </si>
+  <si>
+    <t>Malayo-Polynesian</t>
+  </si>
+  <si>
+    <t>Oceanic</t>
+  </si>
+  <si>
+    <t>3.5.3.1</t>
+  </si>
+  <si>
+    <t>3.5.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceanic Austronesian Austric Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malayo-Polynesian Austronesian Austric Borean Mothertongue  </t>
+  </si>
+  <si>
+    <t>Creole</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Creole Mothertongue</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>South-Chinese</t>
+  </si>
+  <si>
+    <t>3.4.1.1.1</t>
+  </si>
+  <si>
+    <t>3.4.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinitic Sino-Tibetan Sino-Caucasian Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandarin Sinitic Sino-Tibetan Sino-Caucasian Borean Mothertongue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South-Chinese Sinitic Sino-Tibetan Sino-Caucasian Borean Mothertongue </t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,8 +1356,14 @@
         <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1192,8 +1429,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="803">
+  <cellStyleXfs count="995">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1997,8 +2247,200 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2019,8 +2461,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="803">
+  <cellStyles count="995">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2422,6 +2866,102 @@
     <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2823,99 +3363,110 @@
     <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3142,28 +3693,28 @@
     </tableColumn>
     <tableColumn id="4" name="Classes" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Self" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Father" dataDxfId="18"/>
-    <tableColumn id="9" name="F2" dataDxfId="17"/>
-    <tableColumn id="10" name="F3" dataDxfId="16"/>
-    <tableColumn id="11" name="F4" dataDxfId="15"/>
-    <tableColumn id="12" name="F5" dataDxfId="14"/>
-    <tableColumn id="13" name="F6" dataDxfId="13"/>
-    <tableColumn id="14" name="F7" dataDxfId="12"/>
-    <tableColumn id="15" name="F8" dataDxfId="11"/>
-    <tableColumn id="16" name="F9" dataDxfId="10"/>
-    <tableColumn id="17" name="F10" dataDxfId="9"/>
-    <tableColumn id="18" name="F11" dataDxfId="8"/>
-    <tableColumn id="19" name="F12" dataDxfId="7"/>
+    <tableColumn id="8" name="Father" dataDxfId="13"/>
+    <tableColumn id="9" name="F2" dataDxfId="12"/>
+    <tableColumn id="10" name="F3" dataDxfId="11"/>
+    <tableColumn id="11" name="F4" dataDxfId="10"/>
+    <tableColumn id="12" name="F5" dataDxfId="9"/>
+    <tableColumn id="13" name="F6" dataDxfId="8"/>
+    <tableColumn id="14" name="F7" dataDxfId="7"/>
+    <tableColumn id="15" name="F8" dataDxfId="6"/>
+    <tableColumn id="16" name="F9" dataDxfId="5"/>
+    <tableColumn id="17" name="F10" dataDxfId="4"/>
+    <tableColumn id="18" name="F11" dataDxfId="3"/>
+    <tableColumn id="19" name="F12" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:R69" totalsRowShown="0">
-  <autoFilter ref="A1:R69"/>
-  <sortState ref="A2:R69">
-    <sortCondition ref="L1:L69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:R90" totalsRowShown="0">
+  <autoFilter ref="A1:R90"/>
+  <sortState ref="A2:R71">
+    <sortCondition ref="L1:L71"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="Language" dataCellStyle="Normal"/>
@@ -3181,11 +3732,11 @@
       <calculatedColumnFormula>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Self" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Father" dataDxfId="6"/>
-    <tableColumn id="9" name="F2" dataDxfId="5"/>
-    <tableColumn id="10" name="F3" dataDxfId="4"/>
-    <tableColumn id="11" name="F4" dataDxfId="3"/>
-    <tableColumn id="12" name="F5" dataDxfId="2"/>
+    <tableColumn id="8" name="Father" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="F2" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="F3" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="F4" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="F5" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8224,10 +8775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8270,10 +8821,10 @@
         <v>99</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="M1" t="s">
         <v>202</v>
@@ -8296,134 +8847,133 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>344</v>
+        <v>228</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
       </c>
       <c r="L2" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>337</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="K3" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
+      <c r="C4" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="K4" s="17">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L4" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
         <v>92</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="A5" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="17">
-        <v>1.1000000000000001</v>
+        <v>367</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>368</v>
       </c>
       <c r="L5" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="N5" t="s">
         <v>92</v>
@@ -8431,31 +8981,34 @@
       <c r="O5" t="s">
         <v>103</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>19</v>
+      <c r="A6" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K6" s="17">
-        <v>1.2</v>
+        <v>3</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>369</v>
       </c>
       <c r="L6" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="N6" t="s">
         <v>92</v>
@@ -8463,13 +9016,13 @@
       <c r="O6" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
@@ -8478,17 +9031,17 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="K7" s="17">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L7" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="N7" t="s">
         <v>92</v>
@@ -8499,79 +9052,76 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="17">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L8" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>222</v>
+      <c r="D9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" t="s">
+        <v>335</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="17">
         <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" s="17">
-        <v>2.1</v>
       </c>
       <c r="L9" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="N9" t="s">
-        <v>222</v>
-      </c>
-      <c r="O9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="1"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>222</v>
@@ -8580,17 +9130,17 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K10" s="17">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="L10" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
         <v>222</v>
@@ -8598,44 +9148,29 @@
       <c r="O10" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
         <v>222</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="K11" s="17">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L11" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="N11" t="s">
         <v>222</v>
@@ -8643,48 +9178,52 @@
       <c r="O11" t="s">
         <v>103</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>259</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>306</v>
+        <v>233</v>
+      </c>
+      <c r="K12" s="17">
+        <v>2.2999999999999998</v>
       </c>
       <c r="L12" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>23100</v>
+        <v>23000</v>
       </c>
       <c r="M12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O12" t="s">
-        <v>222</v>
-      </c>
-      <c r="P12" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>224</v>
@@ -8693,17 +9232,17 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L13" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="N13" t="s">
         <v>224</v>
@@ -8714,12 +9253,10 @@
       <c r="P13" t="s">
         <v>103</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>224</v>
@@ -8728,17 +9265,17 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="L14" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N14" t="s">
         <v>224</v>
@@ -8746,15 +9283,13 @@
       <c r="O14" t="s">
         <v>222</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>224</v>
@@ -8763,17 +9298,17 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="L15" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="N15" t="s">
         <v>224</v>
@@ -8781,191 +9316,185 @@
       <c r="O15" t="s">
         <v>222</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="P15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>239</v>
-      </c>
-      <c r="K16" s="17">
-        <v>2.4</v>
+        <v>246</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="L16" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" t="s">
         <v>222</v>
       </c>
-      <c r="O16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="P16" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="K17" s="17">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L17" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+        <v>222</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>221</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K18" s="17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="15"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>250</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>299</v>
+        <v>234</v>
+      </c>
+      <c r="K19" s="17">
+        <v>3.1</v>
       </c>
       <c r="L19" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>31100</v>
+        <v>31000</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="8"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
+      <c r="C20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" t="s">
+        <v>363</v>
+      </c>
       <c r="I20">
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="L20" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N20" t="s">
         <v>65</v>
@@ -8976,154 +9505,143 @@
       <c r="P20" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
+      <c r="A21" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>248</v>
+        <v>4</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="L21" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>31300</v>
-      </c>
-      <c r="M21" t="s">
-        <v>18</v>
+        <v>31110</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
         <v>65</v>
       </c>
-      <c r="O21" t="s">
-        <v>67</v>
-      </c>
       <c r="P21" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
+      <c r="A22" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>249</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>298</v>
+        <v>4</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>359</v>
       </c>
       <c r="L22" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>31400</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
+        <v>31120</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
         <v>65</v>
       </c>
-      <c r="O22" t="s">
-        <v>67</v>
-      </c>
       <c r="P22" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
-      </c>
-      <c r="K23" s="17">
-        <v>3.2</v>
+        <v>239</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="L23" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32000</v>
+        <v>31200</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="N23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O23" t="s">
-        <v>103</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="P23" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>304</v>
+        <v>240</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="L24" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32100</v>
+        <v>31300</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="O24" t="s">
         <v>67</v>
@@ -9131,217 +9649,211 @@
       <c r="P24" t="s">
         <v>103</v>
       </c>
-      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>274</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>323</v>
+        <v>241</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="L25" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32110</v>
+        <v>31400</v>
       </c>
       <c r="M25" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="O25" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="P25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>103</v>
-      </c>
-      <c r="R25" s="8"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
+      <c r="D26" t="s">
+        <v>86</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>275</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>324</v>
+        <v>236</v>
+      </c>
+      <c r="K26" s="17">
+        <v>3.2</v>
       </c>
       <c r="L26" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32120</v>
+        <v>32000</v>
       </c>
       <c r="M26" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="O26" t="s">
-        <v>225</v>
-      </c>
-      <c r="P26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>103</v>
-      </c>
-      <c r="R26" s="8"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
         <v>78</v>
       </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="L27" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32121</v>
+        <v>32100</v>
       </c>
       <c r="M27" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>67</v>
-      </c>
-      <c r="R27" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="L28" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32122</v>
+        <v>32110</v>
       </c>
       <c r="M28" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="Q28" t="s">
-        <v>67</v>
-      </c>
-      <c r="R28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" t="s">
-        <v>78</v>
+      <c r="F29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="L29" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32123</v>
+        <v>32120</v>
       </c>
       <c r="M29" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="N29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="Q29" t="s">
-        <v>67</v>
-      </c>
-      <c r="R29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>78</v>
@@ -9350,17 +9862,17 @@
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="L30" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32124</v>
+        <v>32121</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>78</v>
@@ -9380,7 +9892,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
@@ -9389,17 +9901,17 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="L31" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32125</v>
+        <v>32122</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N31" t="s">
         <v>78</v>
@@ -9419,78 +9931,68 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L32" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32130</v>
+        <v>32123</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="N32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" t="s">
         <v>89</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>225</v>
       </c>
-      <c r="P32" t="s">
-        <v>67</v>
-      </c>
       <c r="Q32" t="s">
-        <v>103</v>
-      </c>
-      <c r="R32" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="R32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I33">
         <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="L33" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32131</v>
+        <v>32124</v>
       </c>
       <c r="M33" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O33" t="s">
         <v>89</v>
@@ -9507,29 +10009,29 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34">
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="L34" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32132</v>
+        <v>32125</v>
       </c>
       <c r="M34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O34" t="s">
         <v>89</v>
@@ -9546,46 +10048,55 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s">
-        <v>79</v>
+      <c r="F35" t="s">
+        <v>49</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="L35" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32133</v>
+        <v>32130</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="N35" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="Q35" t="s">
-        <v>67</v>
-      </c>
-      <c r="R35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -9594,17 +10105,17 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="L36" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32134</v>
+        <v>32131</v>
       </c>
       <c r="M36" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="N36" t="s">
         <v>79</v>
@@ -9624,155 +10135,146 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L37" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32140</v>
+        <v>32132</v>
       </c>
       <c r="M37" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N37" t="s">
+        <v>79</v>
+      </c>
+      <c r="O37" t="s">
         <v>89</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>225</v>
       </c>
-      <c r="P37" t="s">
-        <v>67</v>
-      </c>
       <c r="Q37" t="s">
-        <v>103</v>
-      </c>
-      <c r="R37" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="R37" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L38" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32200</v>
+        <v>32133</v>
       </c>
       <c r="M38" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N38" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" t="s">
         <v>225</v>
       </c>
-      <c r="O38" t="s">
-        <v>67</v>
-      </c>
-      <c r="P38" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q38" s="8"/>
+      <c r="Q38" t="s">
+        <v>67</v>
+      </c>
+      <c r="R38" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L39" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32210</v>
+        <v>32134</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s">
         <v>225</v>
       </c>
-      <c r="P39" t="s">
-        <v>67</v>
-      </c>
       <c r="Q39" t="s">
-        <v>103</v>
-      </c>
-      <c r="R39" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="R39" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="L40" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32220</v>
+        <v>32140</v>
       </c>
       <c r="M40" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O40" t="s">
         <v>225</v>
@@ -9783,48 +10285,61 @@
       <c r="Q40" t="s">
         <v>103</v>
       </c>
-      <c r="R40" s="8"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
-        <v>86</v>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="L41" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32230</v>
+        <v>32200</v>
       </c>
       <c r="M41" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="N41" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="O41" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="P41" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>103</v>
-      </c>
-      <c r="R41" s="8"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
@@ -9833,17 +10348,17 @@
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="L42" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32240</v>
+        <v>32210</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
         <v>86</v>
@@ -9857,11 +10372,10 @@
       <c r="Q42" t="s">
         <v>103</v>
       </c>
-      <c r="R42" s="15"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
@@ -9870,17 +10384,17 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="L43" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32250</v>
+        <v>32220</v>
       </c>
       <c r="M43" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s">
         <v>86</v>
@@ -9894,30 +10408,38 @@
       <c r="Q43" t="s">
         <v>103</v>
       </c>
-      <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
       </c>
+      <c r="C44" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>392</v>
+      </c>
       <c r="I44">
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="L44" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>32260</v>
+        <v>32230</v>
       </c>
       <c r="M44" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N44" t="s">
         <v>86</v>
@@ -9931,168 +10453,158 @@
       <c r="Q44" t="s">
         <v>103</v>
       </c>
-      <c r="R44" s="8"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" t="s">
-        <v>220</v>
+      <c r="A45" s="16" t="s">
+        <v>391</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" t="s">
-        <v>226</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
       <c r="I45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>244</v>
-      </c>
-      <c r="K45" s="17">
-        <v>3.3</v>
+        <v>394</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="L45" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33000</v>
-      </c>
-      <c r="M45" t="s">
-        <v>220</v>
+        <v>32231</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>391</v>
       </c>
       <c r="N45" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O45" t="s">
-        <v>103</v>
-      </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="P45" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>67</v>
+      </c>
+      <c r="R45" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" t="s">
-        <v>73</v>
+      <c r="A46" s="16" t="s">
+        <v>393</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="I46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="L46" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33100</v>
-      </c>
-      <c r="M46" t="s">
-        <v>73</v>
+        <v>32232</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>393</v>
       </c>
       <c r="N46" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>67</v>
+      </c>
+      <c r="R46" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" t="s">
-        <v>31</v>
+      <c r="A47" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="I47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="L47" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33110</v>
-      </c>
-      <c r="M47" t="s">
-        <v>31</v>
+        <v>32233</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="N47" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O47" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="Q47" t="s">
-        <v>103</v>
-      </c>
-      <c r="R47" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="R47" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I48">
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L48" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33120</v>
+        <v>32240</v>
       </c>
       <c r="M48" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N48" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O48" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P48" t="s">
         <v>67</v>
@@ -10100,36 +10612,35 @@
       <c r="Q48" t="s">
         <v>103</v>
       </c>
-      <c r="R48" s="8"/>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I49">
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="L49" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33130</v>
+        <v>32250</v>
       </c>
       <c r="M49" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N49" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O49" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P49" t="s">
         <v>67</v>
@@ -10137,36 +10648,35 @@
       <c r="Q49" t="s">
         <v>103</v>
       </c>
-      <c r="R49" s="15"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I50">
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L50" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33140</v>
+        <v>32260</v>
       </c>
       <c r="M50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O50" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P50" t="s">
         <v>67</v>
@@ -10174,67 +10684,86 @@
       <c r="Q50" t="s">
         <v>103</v>
       </c>
-      <c r="R50" s="15"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
       </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>267</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>316</v>
+        <v>238</v>
+      </c>
+      <c r="K51" s="17">
+        <v>3.3</v>
       </c>
       <c r="L51" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33150</v>
+        <v>33000</v>
       </c>
       <c r="M51" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="N51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O51" t="s">
-        <v>220</v>
-      </c>
-      <c r="P51" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>103</v>
-      </c>
-      <c r="R51" s="15"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>220</v>
       </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
       <c r="I52">
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="L52" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33200</v>
+        <v>33100</v>
       </c>
       <c r="M52" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N52" t="s">
         <v>220</v>
@@ -10245,269 +10774,283 @@
       <c r="P52" t="s">
         <v>103</v>
       </c>
-      <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="L53" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33300</v>
+        <v>33110</v>
       </c>
       <c r="M53" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N53" t="s">
+        <v>73</v>
+      </c>
+      <c r="O53" t="s">
         <v>220</v>
       </c>
-      <c r="O53" t="s">
-        <v>67</v>
-      </c>
       <c r="P53" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" t="s">
-        <v>219</v>
+      <c r="A54" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="I54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="L54" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33310</v>
-      </c>
-      <c r="M54" t="s">
-        <v>219</v>
+        <v>33111</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="N54" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="s">
         <v>220</v>
       </c>
-      <c r="P54" t="s">
-        <v>67</v>
-      </c>
       <c r="Q54" t="s">
-        <v>103</v>
-      </c>
-      <c r="R54" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="R54" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" t="s">
-        <v>1</v>
+      <c r="A55" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
       <c r="I55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J55" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="L55" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33320</v>
-      </c>
-      <c r="M55" t="s">
-        <v>1</v>
+        <v>33112</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="N55" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="s">
         <v>220</v>
       </c>
-      <c r="P55" t="s">
-        <v>67</v>
-      </c>
       <c r="Q55" t="s">
-        <v>103</v>
-      </c>
-      <c r="R55" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="R55" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" t="s">
-        <v>10</v>
+      <c r="A56" s="16" t="s">
+        <v>371</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
       <c r="I56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>264</v>
+        <v>381</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="L56" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>33400</v>
-      </c>
-      <c r="M56" t="s">
-        <v>10</v>
+        <v>33113</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>371</v>
       </c>
       <c r="N56" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="s">
         <v>220</v>
       </c>
-      <c r="O56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P56" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
+      <c r="Q56" t="s">
+        <v>67</v>
+      </c>
+      <c r="R56" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" t="s">
-        <v>221</v>
+      <c r="A57" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
       <c r="I57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J57" t="s">
-        <v>243</v>
-      </c>
-      <c r="K57" s="17">
-        <v>3.4</v>
+        <v>380</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="L57" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>34000</v>
-      </c>
-      <c r="M57" t="s">
-        <v>221</v>
+        <v>33114</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="N57" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O57" t="s">
-        <v>103</v>
-      </c>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="P57" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>67</v>
+      </c>
+      <c r="R57" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L58" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>34100</v>
+        <v>33120</v>
       </c>
       <c r="M58" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N58" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="P58" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I59">
         <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="L59" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>34110</v>
+        <v>33130</v>
       </c>
       <c r="M59" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="N59" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P59" t="s">
         <v>67</v>
@@ -10515,36 +11058,35 @@
       <c r="Q59" t="s">
         <v>103</v>
       </c>
-      <c r="R59" s="8"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I60">
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="L60" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>34120</v>
+        <v>33140</v>
       </c>
       <c r="M60" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P60" t="s">
         <v>67</v>
@@ -10552,68 +11094,74 @@
       <c r="Q60" t="s">
         <v>103</v>
       </c>
-      <c r="R60" s="8"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="L61" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>34200</v>
+        <v>33150</v>
       </c>
       <c r="M61" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="P61" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>383</v>
       </c>
       <c r="I62">
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="L62" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="M62" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O62" t="s">
         <v>67</v>
@@ -10621,110 +11169,116 @@
       <c r="P62" t="s">
         <v>103</v>
       </c>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
+      <c r="A63" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="I63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>241</v>
-      </c>
-      <c r="K63" s="17">
-        <v>3.5</v>
+        <v>386</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="L63" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>35000</v>
-      </c>
-      <c r="M63" t="s">
-        <v>53</v>
+        <v>33210</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="N63" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="O63" t="s">
-        <v>103</v>
-      </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="15"/>
+        <v>220</v>
+      </c>
+      <c r="P63" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>103</v>
+      </c>
+      <c r="R63" s="16"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>53</v>
-      </c>
+      <c r="A64" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="I64">
-        <v>3</v>
-      </c>
-      <c r="J64" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>387</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="L64" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>35100</v>
-      </c>
-      <c r="M64" t="s">
-        <v>3</v>
+        <v>33220</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>383</v>
       </c>
       <c r="N64" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="O64" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="P64" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>103</v>
+      </c>
+      <c r="R64" s="16"/>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>220</v>
+      </c>
+      <c r="C65" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
       </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L65" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>35200</v>
+        <v>33300</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="N65" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="O65" t="s">
         <v>67</v>
@@ -10733,134 +11287,918 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L66" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>35300</v>
+        <v>33310</v>
       </c>
       <c r="M66" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="N66" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="O66" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="P66" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>232</v>
-      </c>
-      <c r="K67" s="17">
-        <v>4</v>
+        <v>349</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>306</v>
       </c>
       <c r="L67" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>40000</v>
+        <v>33320</v>
       </c>
       <c r="M67" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>226</v>
+      </c>
+      <c r="O67" t="s">
+        <v>220</v>
+      </c>
+      <c r="P67" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>245</v>
-      </c>
-      <c r="K68" s="17">
-        <v>4.0999999999999996</v>
+        <v>252</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="L68" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
-        <v>41000</v>
+        <v>33400</v>
       </c>
       <c r="M68" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N68" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="O68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="P68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>327</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K69" s="17">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L69" s="19">
         <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34000</v>
+      </c>
+      <c r="M69" t="s">
+        <v>221</v>
+      </c>
+      <c r="N69" t="s">
+        <v>67</v>
+      </c>
+      <c r="O69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>327</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>400</v>
+      </c>
+      <c r="D70" t="s">
+        <v>328</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70" t="s">
+        <v>350</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L70" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34100</v>
+      </c>
+      <c r="M70" t="s">
+        <v>327</v>
+      </c>
+      <c r="N70" t="s">
+        <v>221</v>
+      </c>
+      <c r="O70" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>400</v>
+      </c>
+      <c r="B71" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71" t="s">
+        <v>420</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L71" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34110</v>
+      </c>
+      <c r="M71" t="s">
+        <v>400</v>
+      </c>
+      <c r="N71" t="s">
+        <v>327</v>
+      </c>
+      <c r="O71" t="s">
+        <v>221</v>
+      </c>
+      <c r="P71" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B72" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>421</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="L72" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34111</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="N72" t="s">
+        <v>400</v>
+      </c>
+      <c r="O72" t="s">
+        <v>327</v>
+      </c>
+      <c r="P72" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>67</v>
+      </c>
+      <c r="R72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B73" t="s">
+        <v>400</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>422</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="L73" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34112</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="N73" t="s">
+        <v>400</v>
+      </c>
+      <c r="O73" t="s">
+        <v>327</v>
+      </c>
+      <c r="P73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>67</v>
+      </c>
+      <c r="R73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
+        <v>327</v>
+      </c>
+      <c r="C74" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" t="s">
+        <v>402</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74" t="s">
+        <v>351</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="L74" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34120</v>
+      </c>
+      <c r="M74" t="s">
+        <v>328</v>
+      </c>
+      <c r="N74" t="s">
+        <v>327</v>
+      </c>
+      <c r="O74" t="s">
+        <v>221</v>
+      </c>
+      <c r="P74" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="L75" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34121</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="N75" t="s">
+        <v>328</v>
+      </c>
+      <c r="O75" t="s">
+        <v>327</v>
+      </c>
+      <c r="P75" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>67</v>
+      </c>
+      <c r="R75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>403</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="L76" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34122</v>
+      </c>
+      <c r="M76" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="N76" t="s">
+        <v>328</v>
+      </c>
+      <c r="O76" t="s">
+        <v>327</v>
+      </c>
+      <c r="P76" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>67</v>
+      </c>
+      <c r="R76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
+        <v>250</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="L77" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34200</v>
+      </c>
+      <c r="M77" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+      <c r="O77" t="s">
+        <v>67</v>
+      </c>
+      <c r="P77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>221</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>249</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="L78" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>34300</v>
+      </c>
+      <c r="M78" t="s">
+        <v>30</v>
+      </c>
+      <c r="N78" t="s">
+        <v>221</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" t="s">
+        <v>329</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79" t="s">
+        <v>235</v>
+      </c>
+      <c r="K79" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="L79" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35000</v>
+      </c>
+      <c r="M79" t="s">
+        <v>53</v>
+      </c>
+      <c r="N79" t="s">
+        <v>67</v>
+      </c>
+      <c r="O79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>352</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L80" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35100</v>
+      </c>
+      <c r="M80" t="s">
+        <v>330</v>
+      </c>
+      <c r="N80" t="s">
+        <v>53</v>
+      </c>
+      <c r="O80" t="s">
+        <v>67</v>
+      </c>
+      <c r="P80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81" t="s">
+        <v>353</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L81" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35200</v>
+      </c>
+      <c r="M81" t="s">
+        <v>329</v>
+      </c>
+      <c r="N81" t="s">
+        <v>53</v>
+      </c>
+      <c r="O81" t="s">
+        <v>67</v>
+      </c>
+      <c r="P81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>243</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="L82" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35300</v>
+      </c>
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" t="s">
+        <v>53</v>
+      </c>
+      <c r="O82" t="s">
+        <v>67</v>
+      </c>
+      <c r="P82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>412</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="L83" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35310</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="N83" t="s">
+        <v>13</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>103</v>
+      </c>
+      <c r="R83" s="16"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>411</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="L84" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>35320</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="N84" t="s">
+        <v>13</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>103</v>
+      </c>
+      <c r="R84" s="16"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>331</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>354</v>
+      </c>
+      <c r="K85" s="17">
+        <v>4</v>
+      </c>
+      <c r="L85" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>40000</v>
+      </c>
+      <c r="M85" t="s">
+        <v>331</v>
+      </c>
+      <c r="N85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>331</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>355</v>
+      </c>
+      <c r="K86" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L86" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>41000</v>
+      </c>
+      <c r="M86" t="s">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>331</v>
+      </c>
+      <c r="O86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>331</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>356</v>
+      </c>
+      <c r="K87" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="L87" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
         <v>42000</v>
       </c>
-      <c r="M69" t="s">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
-        <v>94</v>
-      </c>
-      <c r="O69" t="s">
-        <v>103</v>
-      </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="M87" t="s">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>331</v>
+      </c>
+      <c r="O87" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>389</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="L88" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>43000</v>
+      </c>
+      <c r="M88" t="s">
+        <v>388</v>
+      </c>
+      <c r="N88" t="s">
+        <v>331</v>
+      </c>
+      <c r="O88" t="s">
+        <v>103</v>
+      </c>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="K89" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="L89" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>50000</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="N89" t="s">
+        <v>103</v>
+      </c>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>227</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="L90" s="19">
+        <f>LEFT(Table42[[#This Row],[Designation]],1)*10000 + IF(LEN(Table42[[#This Row],[Designation]])&gt;=3,MID(Table42[[#This Row],[Designation]],3,1) * 1000) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=5,MID(Table42[[#This Row],[Designation]],5,1) * 100) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=7,MID(Table42[[#This Row],[Designation]],7,1) * 10) + IF(LEN(Table42[[#This Row],[Designation]])&gt;=9,MID(Table42[[#This Row],[Designation]],9,1) * 1)</f>
+        <v>90000</v>
+      </c>
+      <c r="M90" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
